--- a/data/trans_orig/hab_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/hab_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>77904</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61998</v>
+        <v>63563</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93259</v>
+        <v>94369</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2853516058295615</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2270898626437293</v>
+        <v>0.2328228530252636</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3415953471064529</v>
+        <v>0.3456605007186389</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -765,19 +765,19 @@
         <v>76935</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63886</v>
+        <v>62020</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92842</v>
+        <v>90992</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2949522810288139</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2449263726087473</v>
+        <v>0.2377705497926316</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3559386775871956</v>
+        <v>0.348843283348402</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>151</v>
@@ -786,19 +786,19 @@
         <v>154839</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>135754</v>
+        <v>133979</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>178223</v>
+        <v>176602</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2900424947094513</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2542924260508991</v>
+        <v>0.2509687278768609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3338463622481833</v>
+        <v>0.3308104070108377</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>66932</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53509</v>
+        <v>52954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82975</v>
+        <v>82049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2451631736487329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1959967926594433</v>
+        <v>0.1939645675729805</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3039260821649769</v>
+        <v>0.3005353909727914</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -836,19 +836,19 @@
         <v>57200</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42804</v>
+        <v>45028</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71633</v>
+        <v>71791</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2192925153249316</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1641009348878926</v>
+        <v>0.1726268498937148</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2746249458969516</v>
+        <v>0.2752339956265301</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>117</v>
@@ -857,19 +857,19 @@
         <v>124132</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>105294</v>
+        <v>104327</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>145145</v>
+        <v>146530</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2325227727469298</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1972354554282473</v>
+        <v>0.1954249505337962</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2718845974319376</v>
+        <v>0.2744783115734631</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>62234</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49082</v>
+        <v>49003</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76300</v>
+        <v>76659</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2279544125081159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1797793891082586</v>
+        <v>0.1794922103655509</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2794775109263624</v>
+        <v>0.2807926834721445</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>52</v>
@@ -907,19 +907,19 @@
         <v>55286</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42851</v>
+        <v>42875</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70308</v>
+        <v>69882</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2119548357855645</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1642818089068217</v>
+        <v>0.1643737088236459</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2695471125543496</v>
+        <v>0.2679122268418998</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>116</v>
@@ -928,19 +928,19 @@
         <v>117520</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>99821</v>
+        <v>99841</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>136985</v>
+        <v>138228</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2201370210254205</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1869834284508065</v>
+        <v>0.1870214213500829</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2565995052186643</v>
+        <v>0.2589274050124859</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>65940</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50652</v>
+        <v>51121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79626</v>
+        <v>81233</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2415308080135897</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1855303379189058</v>
+        <v>0.1872502965475772</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2916587155697946</v>
+        <v>0.2975449629010306</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -978,19 +978,19 @@
         <v>71418</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58932</v>
+        <v>57733</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87596</v>
+        <v>87193</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.27380036786069</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2259318746647687</v>
+        <v>0.2213352306247925</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3358241470693746</v>
+        <v>0.3342811572262632</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -999,19 +999,19 @@
         <v>137358</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117803</v>
+        <v>117392</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>158687</v>
+        <v>157466</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2572977115181984</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2206678770053996</v>
+        <v>0.2198977852800969</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.297250776933671</v>
+        <v>0.2949646327096183</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>48664</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37376</v>
+        <v>36740</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>61382</v>
+        <v>61255</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09869558321027734</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07580284444865126</v>
+        <v>0.07451131182471184</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1244874754399672</v>
+        <v>0.1242308715037525</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>56</v>
@@ -1124,19 +1124,19 @@
         <v>53790</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>42115</v>
+        <v>41454</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>67215</v>
+        <v>68880</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1067360309790101</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08357051706998246</v>
+        <v>0.08225854957481217</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.133376749389462</v>
+        <v>0.1366807785500878</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>113</v>
@@ -1145,19 +1145,19 @@
         <v>102454</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>85908</v>
+        <v>85215</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>122273</v>
+        <v>121780</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1027596532884253</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08616439732184281</v>
+        <v>0.08546907676646119</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1226376842329059</v>
+        <v>0.1221430458821154</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>287085</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>265431</v>
+        <v>263280</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>309947</v>
+        <v>309757</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5822333228678385</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5383176966361913</v>
+        <v>0.5339550062192706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6286006153680647</v>
+        <v>0.6282147745940544</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>290</v>
@@ -1195,19 +1195,19 @@
         <v>291141</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>266609</v>
+        <v>266562</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>311171</v>
+        <v>312676</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5777184446586833</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5290388337316655</v>
+        <v>0.5289458045858394</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6174651467338531</v>
+        <v>0.6204512813668369</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>551</v>
@@ -1216,19 +1216,19 @@
         <v>578225</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>547171</v>
+        <v>546224</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>610950</v>
+        <v>609529</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.579951263215929</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5488040511672381</v>
+        <v>0.5478543806069156</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6127738126801087</v>
+        <v>0.6113488419515164</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>122715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>104003</v>
+        <v>102790</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143718</v>
+        <v>142197</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2488779155278009</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.210927201652563</v>
+        <v>0.2084679353596947</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.291473193400888</v>
+        <v>0.2883881183091886</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>109</v>
@@ -1266,19 +1266,19 @@
         <v>118048</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101279</v>
+        <v>98288</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139736</v>
+        <v>138448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2342457925435945</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2009716511839809</v>
+        <v>0.1950352276014976</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2772826486811932</v>
+        <v>0.2747257356305281</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>219</v>
@@ -1287,19 +1287,19 @@
         <v>240763</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>213852</v>
+        <v>216874</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>268433</v>
+        <v>270835</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2414820620989481</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2144899141402997</v>
+        <v>0.2175208945541705</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2692341351191634</v>
+        <v>0.2716439005685029</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>34611</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24350</v>
+        <v>24899</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46284</v>
+        <v>46624</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07019317839408337</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04938406285634291</v>
+        <v>0.05049700580035588</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09386709119765163</v>
+        <v>0.09455811364179678</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>44</v>
@@ -1337,19 +1337,19 @@
         <v>40971</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30362</v>
+        <v>29804</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>53919</v>
+        <v>52932</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08129973181871211</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06024846280045592</v>
+        <v>0.05914146131709522</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.106993932392928</v>
+        <v>0.1050353142195954</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>81</v>
@@ -1358,19 +1358,19 @@
         <v>75581</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>60973</v>
+        <v>60937</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>93425</v>
+        <v>92415</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07580702139669758</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06115530856699227</v>
+        <v>0.06111870622857896</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09370415721637851</v>
+        <v>0.09269060113171561</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>125251</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108810</v>
+        <v>107703</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>142783</v>
+        <v>143153</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3928248985893892</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3412633775574666</v>
+        <v>0.3377892261853235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4478131000467094</v>
+        <v>0.4489730418137248</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -1483,19 +1483,19 @@
         <v>139344</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>121754</v>
+        <v>121712</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>157166</v>
+        <v>157395</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4154417113447813</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.362999233161641</v>
+        <v>0.362872390535741</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4685771061180546</v>
+        <v>0.4692589538900589</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>265</v>
@@ -1504,19 +1504,19 @@
         <v>264595</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>239398</v>
+        <v>240024</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>290241</v>
+        <v>290421</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4044196386568366</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3659075566418351</v>
+        <v>0.3668638139818683</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4436187415644253</v>
+        <v>0.4438933406798036</v>
       </c>
     </row>
     <row r="15">
@@ -1580,19 +1580,19 @@
         <v>110752</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94296</v>
+        <v>93354</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>127895</v>
+        <v>128469</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3473514394296829</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2957406850744466</v>
+        <v>0.2927879207767154</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4011195924459661</v>
+        <v>0.4029180525643748</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -1601,19 +1601,19 @@
         <v>103022</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>85907</v>
+        <v>87160</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>120906</v>
+        <v>119877</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3071504185494667</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.256122477896101</v>
+        <v>0.2598585548985919</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3604692136805674</v>
+        <v>0.3574029383107842</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>204</v>
@@ -1622,19 +1622,19 @@
         <v>213774</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>190991</v>
+        <v>190175</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>238039</v>
+        <v>238766</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3267419754617327</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2919203156621801</v>
+        <v>0.2906730792250408</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3638303948913921</v>
+        <v>0.3649411805982537</v>
       </c>
     </row>
     <row r="17">
@@ -1651,19 +1651,19 @@
         <v>82844</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68127</v>
+        <v>67447</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>99569</v>
+        <v>99215</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2598236619809278</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2136659321378155</v>
+        <v>0.211533458986209</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3122782588513504</v>
+        <v>0.3111689153169891</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>96</v>
@@ -1672,19 +1672,19 @@
         <v>93046</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77081</v>
+        <v>77083</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>108582</v>
+        <v>108914</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.277407870105752</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2298090426057545</v>
+        <v>0.2298144261335745</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3237262149504363</v>
+        <v>0.3247156815495506</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>176</v>
@@ -1693,19 +1693,19 @@
         <v>175890</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>153922</v>
+        <v>154156</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>198692</v>
+        <v>201620</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2688383858814308</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2352625873907963</v>
+        <v>0.2356199380675623</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3036911855266302</v>
+        <v>0.3081656434665813</v>
       </c>
     </row>
     <row r="18">
@@ -1797,19 +1797,19 @@
         <v>96454</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>80903</v>
+        <v>80284</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>114958</v>
+        <v>115067</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2689218865499529</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2255636266527567</v>
+        <v>0.2238374545771392</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3205103859137443</v>
+        <v>0.3208157826517035</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -1818,19 +1818,19 @@
         <v>103331</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>87473</v>
+        <v>86678</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>121622</v>
+        <v>121486</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2781795509577583</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2354872872182628</v>
+        <v>0.2333457709855743</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.327418930668211</v>
+        <v>0.3270532073388084</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>200</v>
@@ -1839,19 +1839,19 @@
         <v>199786</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>175753</v>
+        <v>175539</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>224291</v>
+        <v>223005</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2736317716846603</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.240715833777703</v>
+        <v>0.2404230743253252</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3071946446332164</v>
+        <v>0.3054326010572965</v>
       </c>
     </row>
     <row r="20">
@@ -1868,19 +1868,19 @@
         <v>20195</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12888</v>
+        <v>12799</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29954</v>
+        <v>29516</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05630520417477519</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03593127245013639</v>
+        <v>0.03568547255292347</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0835145805371374</v>
+        <v>0.08229340570963375</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -1889,19 +1889,19 @@
         <v>25959</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17046</v>
+        <v>17269</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35582</v>
+        <v>36292</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06988555125483738</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04589010651703145</v>
+        <v>0.04649052199574034</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09578997230756002</v>
+        <v>0.0977028369530317</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>48</v>
@@ -1910,19 +1910,19 @@
         <v>46154</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>34243</v>
+        <v>34696</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>60338</v>
+        <v>59925</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06321427670311443</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04690064151863879</v>
+        <v>0.04752081970428643</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08264094596694699</v>
+        <v>0.08207514869857449</v>
       </c>
     </row>
     <row r="21">
@@ -1939,19 +1939,19 @@
         <v>113514</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>96529</v>
+        <v>95738</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>132616</v>
+        <v>130180</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3164837320218659</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2691297185541565</v>
+        <v>0.2669251592600817</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3697424678114449</v>
+        <v>0.3629506169718539</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>128</v>
@@ -1960,19 +1960,19 @@
         <v>122590</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>106771</v>
+        <v>106746</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>141495</v>
+        <v>142342</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3300255441802892</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2874386414134888</v>
+        <v>0.2873715434895231</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3809205334244565</v>
+        <v>0.3832001156099009</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>242</v>
@@ -1981,19 +1981,19 @@
         <v>236104</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>210950</v>
+        <v>213116</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>258745</v>
+        <v>262100</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3233731997074933</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2889225371366869</v>
+        <v>0.2918891854717235</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3543829723290556</v>
+        <v>0.3589782607503748</v>
       </c>
     </row>
     <row r="22">
@@ -2010,19 +2010,19 @@
         <v>128508</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>111467</v>
+        <v>111278</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>146249</v>
+        <v>146227</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.358289177253406</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3107790353415769</v>
+        <v>0.3102506371197824</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4077517986284078</v>
+        <v>0.4076924100903096</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>127</v>
@@ -2031,19 +2031,19 @@
         <v>119575</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102326</v>
+        <v>103738</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>136569</v>
+        <v>135432</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3219093536071151</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2754718419909152</v>
+        <v>0.2792747362889556</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3676586436797592</v>
+        <v>0.3645978800958202</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>256</v>
@@ -2052,19 +2052,19 @@
         <v>248083</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>223289</v>
+        <v>223893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>273579</v>
+        <v>273580</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3397807519047319</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.305821994110638</v>
+        <v>0.306649583557463</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3747009894224472</v>
+        <v>0.3747015489711142</v>
       </c>
     </row>
     <row r="23">
@@ -2156,19 +2156,19 @@
         <v>54338</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>43028</v>
+        <v>43031</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>68148</v>
+        <v>66208</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2672714056677984</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2116379138245357</v>
+        <v>0.2116520398416635</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3351971610860632</v>
+        <v>0.3256527686616822</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>62</v>
@@ -2177,19 +2177,19 @@
         <v>68335</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>54906</v>
+        <v>54417</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>82878</v>
+        <v>82817</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3290599320668299</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2643913368719553</v>
+        <v>0.2620388709690449</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3990874521896932</v>
+        <v>0.3987931245905965</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>120</v>
@@ -2198,19 +2198,19 @@
         <v>122674</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>103700</v>
+        <v>105400</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>141935</v>
+        <v>141625</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2984934192746507</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2523266158736126</v>
+        <v>0.2564627999709225</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3453603730375839</v>
+        <v>0.3446066967179941</v>
       </c>
     </row>
     <row r="25">
@@ -2274,19 +2274,19 @@
         <v>84030</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>70900</v>
+        <v>70774</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>97870</v>
+        <v>98201</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4133149129879807</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3487321445001929</v>
+        <v>0.3481144864181875</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4813866734093871</v>
+        <v>0.4830160273660176</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>79</v>
@@ -2295,19 +2295,19 @@
         <v>81613</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>66770</v>
+        <v>68318</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>95767</v>
+        <v>96840</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3929991006783898</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3215212895563105</v>
+        <v>0.3289774966894543</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4611549863173277</v>
+        <v>0.4663208358485506</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>160</v>
@@ -2316,19 +2316,19 @@
         <v>165644</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>148293</v>
+        <v>144786</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>187415</v>
+        <v>185240</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4030492438527762</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3608318278312844</v>
+        <v>0.3522982708876796</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4560234491412268</v>
+        <v>0.4507308863209268</v>
       </c>
     </row>
     <row r="27">
@@ -2345,19 +2345,19 @@
         <v>64939</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>52326</v>
+        <v>52760</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>79289</v>
+        <v>77882</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3194136813442208</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2573746026980563</v>
+        <v>0.2595070493672937</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3899956553728904</v>
+        <v>0.3830731179802482</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>57</v>
@@ -2366,19 +2366,19 @@
         <v>57719</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>45986</v>
+        <v>45046</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>71694</v>
+        <v>70851</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2779409672547803</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2214382478503388</v>
+        <v>0.216915528165268</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3452349695850868</v>
+        <v>0.3411743317197339</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>124</v>
@@ -2387,19 +2387,19 @@
         <v>122659</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>104220</v>
+        <v>104641</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>142464</v>
+        <v>140926</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.298457336872573</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2535916049194358</v>
+        <v>0.2546155025799415</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3466491379674128</v>
+        <v>0.3429063633702676</v>
       </c>
     </row>
     <row r="28">
@@ -2491,19 +2491,19 @@
         <v>48076</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36538</v>
+        <v>37041</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>60414</v>
+        <v>61089</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1775265458413284</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1349194973646782</v>
+        <v>0.1367784268835449</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2230838575533697</v>
+        <v>0.2255776420156386</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -2512,19 +2512,19 @@
         <v>45714</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>33763</v>
+        <v>34955</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>58074</v>
+        <v>59685</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1643535140936755</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1213855787924815</v>
+        <v>0.1256713982684275</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2087907439003553</v>
+        <v>0.2145826552419303</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>96</v>
@@ -2533,19 +2533,19 @@
         <v>93790</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>76185</v>
+        <v>76967</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>110296</v>
+        <v>114220</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1708520466278451</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1387816960950221</v>
+        <v>0.1402066065442467</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2009194262279658</v>
+        <v>0.2080678187119313</v>
       </c>
     </row>
     <row r="30">
@@ -2562,19 +2562,19 @@
         <v>21162</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13456</v>
+        <v>13811</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30796</v>
+        <v>31612</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07814489018657984</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04968907593374221</v>
+        <v>0.05100001566675935</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1137191539796037</v>
+        <v>0.116730297166225</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>28</v>
@@ -2583,19 +2583,19 @@
         <v>28857</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>19156</v>
+        <v>19580</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>40046</v>
+        <v>39707</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1037481253247127</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06887170209371862</v>
+        <v>0.07039652544500982</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1439764002203144</v>
+        <v>0.1427552446379494</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>48</v>
@@ -2604,19 +2604,19 @@
         <v>50019</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>37788</v>
+        <v>37983</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>67479</v>
+        <v>66248</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09111751304711024</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06883609771468398</v>
+        <v>0.06919148052214669</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1229225825572364</v>
+        <v>0.120679929963777</v>
       </c>
     </row>
     <row r="31">
@@ -2633,19 +2633,19 @@
         <v>98461</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>84167</v>
+        <v>81861</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>115158</v>
+        <v>116149</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3635781615368043</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3107944062184479</v>
+        <v>0.3022814144314266</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4252328905226049</v>
+        <v>0.4288926220985754</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>97</v>
@@ -2654,19 +2654,19 @@
         <v>101485</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>86941</v>
+        <v>85377</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>119077</v>
+        <v>116953</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3648640666558973</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3125767166100112</v>
+        <v>0.3069513912695135</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4281116474704709</v>
+        <v>0.4204773394943854</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>192</v>
@@ -2675,19 +2675,19 @@
         <v>199946</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>177981</v>
+        <v>178052</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>223097</v>
+        <v>222430</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.364229702721128</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3242174516181607</v>
+        <v>0.3243479075113624</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4064030340488387</v>
+        <v>0.4051872179972181</v>
       </c>
     </row>
     <row r="32">
@@ -2704,19 +2704,19 @@
         <v>103111</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>85898</v>
+        <v>86963</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>117817</v>
+        <v>119495</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3807504024352875</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3171866116275379</v>
+        <v>0.3211197593771167</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4350512964544087</v>
+        <v>0.4412471373835855</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>101</v>
@@ -2725,19 +2725,19 @@
         <v>102088</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>85748</v>
+        <v>87951</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>119234</v>
+        <v>119513</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3670342939257145</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3082865474610708</v>
+        <v>0.3162061559914952</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4286777364872678</v>
+        <v>0.4296787545687052</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>200</v>
@@ -2746,19 +2746,19 @@
         <v>205200</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>182982</v>
+        <v>183851</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>229104</v>
+        <v>228662</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3738007376039166</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3333272383444964</v>
+        <v>0.3349108299049859</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4173457997836296</v>
+        <v>0.4165407474118206</v>
       </c>
     </row>
     <row r="33">
@@ -2850,19 +2850,19 @@
         <v>217989</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>194552</v>
+        <v>196009</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>241462</v>
+        <v>242342</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3544378790517709</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3163302465216521</v>
+        <v>0.3186992920662968</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.392604260555837</v>
+        <v>0.3940351677542724</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>232</v>
@@ -2871,19 +2871,19 @@
         <v>241392</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>217434</v>
+        <v>219070</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>269654</v>
+        <v>267868</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3782281857030557</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3406879926151594</v>
+        <v>0.3432526298743501</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.422509719849957</v>
+        <v>0.4197119806568562</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>461</v>
@@ -2892,19 +2892,19 @@
         <v>459381</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>424814</v>
+        <v>424493</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>494954</v>
+        <v>492886</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3665531589897816</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3389708557235034</v>
+        <v>0.3387144584193361</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3949375672540902</v>
+        <v>0.3932871411194955</v>
       </c>
     </row>
     <row r="35">
@@ -2921,19 +2921,19 @@
         <v>211367</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>189586</v>
+        <v>187182</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>235950</v>
+        <v>237237</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3436712037405091</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3082571047045358</v>
+        <v>0.3043468999316972</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3836411523476533</v>
+        <v>0.3857340527951522</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>203</v>
@@ -2942,19 +2942,19 @@
         <v>206433</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>182123</v>
+        <v>182788</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>228463</v>
+        <v>231378</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3234523201798722</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2853607064583062</v>
+        <v>0.2864035375168325</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3579694257825287</v>
+        <v>0.3625376724268849</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>394</v>
@@ -2963,19 +2963,19 @@
         <v>417800</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>382844</v>
+        <v>383874</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>450196</v>
+        <v>450898</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3333746809608026</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3054820121309356</v>
+        <v>0.3063036681781368</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3592237832674338</v>
+        <v>0.3597838719165716</v>
       </c>
     </row>
     <row r="36">
@@ -2992,19 +2992,19 @@
         <v>110839</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>92227</v>
+        <v>91811</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>133746</v>
+        <v>131869</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.180217953811932</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1499557631730394</v>
+        <v>0.1492788155632404</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2174633445599228</v>
+        <v>0.2144123542600437</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>107</v>
@@ -3013,19 +3013,19 @@
         <v>115125</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>95647</v>
+        <v>94494</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>136065</v>
+        <v>135226</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1803852053728883</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1498659605155405</v>
+        <v>0.1480584716177135</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2131953791714215</v>
+        <v>0.211880104232391</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>212</v>
@@ -3034,19 +3034,19 @@
         <v>225964</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>196991</v>
+        <v>199609</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>253036</v>
+        <v>256873</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.180303127135284</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1571848954124288</v>
+        <v>0.159273327388693</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2019045727004446</v>
+        <v>0.2049662853175677</v>
       </c>
     </row>
     <row r="37">
@@ -3063,19 +3063,19 @@
         <v>74832</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>58989</v>
+        <v>60523</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>93325</v>
+        <v>92571</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.121672963395788</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09591249025854706</v>
+        <v>0.0984064542509277</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1517419953936259</v>
+        <v>0.1505147387960485</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>79</v>
@@ -3084,19 +3084,19 @@
         <v>75268</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>59597</v>
+        <v>60895</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>90876</v>
+        <v>92448</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1179342887441838</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09338006017490258</v>
+        <v>0.09541445904145233</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1423899340261316</v>
+        <v>0.1448525066252212</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>152</v>
@@ -3105,19 +3105,19 @@
         <v>150100</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>129112</v>
+        <v>131032</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>174092</v>
+        <v>172982</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1197690329141318</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1030221108904805</v>
+        <v>0.1045540221398127</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1389127151561426</v>
+        <v>0.1380270445950799</v>
       </c>
     </row>
     <row r="38">
@@ -3209,19 +3209,19 @@
         <v>273545</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>247209</v>
+        <v>245735</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>300986</v>
+        <v>298091</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3677697692252168</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3323618072596836</v>
+        <v>0.3303802561440422</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4046632035781711</v>
+        <v>0.400770796508419</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>295</v>
@@ -3230,19 +3230,19 @@
         <v>309770</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>282739</v>
+        <v>282336</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>336519</v>
+        <v>339165</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3953619858023788</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.360861139990151</v>
+        <v>0.3603470641171821</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.4295010350683114</v>
+        <v>0.4328785602589086</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>585</v>
@@ -3251,19 +3251,19 @@
         <v>583316</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>548726</v>
+        <v>546355</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>626538</v>
+        <v>621769</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.3819246305366368</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3592769445322174</v>
+        <v>0.3577249581046482</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4102243933840663</v>
+        <v>0.4071016527120994</v>
       </c>
     </row>
     <row r="40">
@@ -3280,19 +3280,19 @@
         <v>71768</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>58720</v>
+        <v>56495</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>89041</v>
+        <v>87258</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.09648846327227552</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07894591662587336</v>
+        <v>0.07595473043120958</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1197118664792921</v>
+        <v>0.1173141344127654</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>93</v>
@@ -3301,19 +3301,19 @@
         <v>74251</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>60251</v>
+        <v>60762</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>90089</v>
+        <v>89686</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09476684603237376</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07689877539760709</v>
+        <v>0.0775512367774005</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1149810307866059</v>
+        <v>0.114467066218797</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>179</v>
@@ -3322,19 +3322,19 @@
         <v>146019</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>126574</v>
+        <v>125958</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>168166</v>
+        <v>165678</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09560527024593744</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08287409570488939</v>
+        <v>0.08247091452394084</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1101063081647327</v>
+        <v>0.108477331576516</v>
       </c>
     </row>
     <row r="41">
@@ -3351,19 +3351,19 @@
         <v>259255</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>230367</v>
+        <v>232247</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>286342</v>
+        <v>289728</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3485576155907111</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3097180071852986</v>
+        <v>0.3122453990717261</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.384974259760361</v>
+        <v>0.3895262434422805</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>233</v>
@@ -3372,19 +3372,19 @@
         <v>271224</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>244367</v>
+        <v>243782</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>298668</v>
+        <v>298530</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.34616488311531</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.311886511007293</v>
+        <v>0.3111405914067305</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3811913916792139</v>
+        <v>0.381015110966645</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>459</v>
@@ -3393,19 +3393,19 @@
         <v>530479</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>487577</v>
+        <v>490939</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>568369</v>
+        <v>568391</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.347330139130097</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3192401210318708</v>
+        <v>0.3214409121472767</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3721385643535044</v>
+        <v>0.3721527144272127</v>
       </c>
     </row>
     <row r="42">
@@ -3422,19 +3422,19 @@
         <v>139227</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>117679</v>
+        <v>118943</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>160539</v>
+        <v>161100</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1871841519117967</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1582143891207132</v>
+        <v>0.1599136912674248</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2158376269382244</v>
+        <v>0.2165925214685918</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>124</v>
@@ -3443,19 +3443,19 @@
         <v>128266</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>106658</v>
+        <v>109258</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>150018</v>
+        <v>150716</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1637062850499374</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1361277710184012</v>
+        <v>0.139447264051512</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1914686196638779</v>
+        <v>0.192359713309158</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>258</v>
@@ -3464,19 +3464,19 @@
         <v>267492</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>237311</v>
+        <v>239237</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>297997</v>
+        <v>299591</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1751399600873288</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1553785935568827</v>
+        <v>0.1566397877435439</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1951127045047379</v>
+        <v>0.1961567490602372</v>
       </c>
     </row>
     <row r="43">
@@ -3568,19 +3568,19 @@
         <v>942222</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>885874</v>
+        <v>887233</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>987389</v>
+        <v>989079</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2875658974032656</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2703683459634703</v>
+        <v>0.2707831966512627</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3013509256032784</v>
+        <v>0.30186675376584</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>997</v>
@@ -3589,19 +3589,19 @@
         <v>1038612</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>989654</v>
+        <v>982411</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1091594</v>
+        <v>1098522</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3073546569657104</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2928665725762669</v>
+        <v>0.2907231500577572</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.323033574098946</v>
+        <v>0.3250837212229648</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1991</v>
@@ -3610,19 +3610,19 @@
         <v>1980834</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1909743</v>
+        <v>1895977</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2061059</v>
+        <v>2050223</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.29761288191955</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2869316223499212</v>
+        <v>0.284863396046194</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3096663632999571</v>
+        <v>0.3080382598254882</v>
       </c>
     </row>
     <row r="45">
@@ -3639,19 +3639,19 @@
         <v>678509</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>630049</v>
+        <v>630918</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>730446</v>
+        <v>722637</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2070807338487843</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1922907488133419</v>
+        <v>0.1925559683677892</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2229318946068079</v>
+        <v>0.2205486395228667</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>696</v>
@@ -3660,19 +3660,19 @@
         <v>683841</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>646303</v>
+        <v>639504</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>736861</v>
+        <v>732017</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.202367916061642</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1912593707392115</v>
+        <v>0.1892473881224723</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2180578919797312</v>
+        <v>0.2166245259171461</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1337</v>
@@ -3681,19 +3681,19 @@
         <v>1362350</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1295632</v>
+        <v>1298250</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1427909</v>
+        <v>1434535</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2046879811759311</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1946638971076291</v>
+        <v>0.1950571065289538</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2145379257272412</v>
+        <v>0.2155334478869508</v>
       </c>
     </row>
     <row r="46">
@@ -3710,19 +3710,19 @@
         <v>961800</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>910045</v>
+        <v>909323</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1016662</v>
+        <v>1014723</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2935410826611851</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2777453248861794</v>
+        <v>0.2775252098828879</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3102848084641321</v>
+        <v>0.3096931274546066</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>908</v>
@@ -3731,19 +3731,19 @@
         <v>968393</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>915972</v>
+        <v>912573</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1019525</v>
+        <v>1022787</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2865748989646265</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.271061887848202</v>
+        <v>0.2700561016825821</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3017062234266713</v>
+        <v>0.3026717584804</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1804</v>
@@ -3752,19 +3752,19 @@
         <v>1930193</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1858289</v>
+        <v>1858126</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2000391</v>
+        <v>2014401</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2900042697793032</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2792008482231151</v>
+        <v>0.2791763954832988</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3005511835083325</v>
+        <v>0.3026561929122495</v>
       </c>
     </row>
     <row r="47">
@@ -3781,19 +3781,19 @@
         <v>694012</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>651483</v>
+        <v>646638</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>743174</v>
+        <v>740322</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.211812286086765</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1988325314456508</v>
+        <v>0.1973538727683969</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2268163884874016</v>
+        <v>0.2259460246064538</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>696</v>
@@ -3802,19 +3802,19 @@
         <v>688351</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>639995</v>
+        <v>645657</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>733292</v>
+        <v>737925</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2037025280080212</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.189392739912056</v>
+        <v>0.1910680775333964</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2170017049630838</v>
+        <v>0.2183728707501943</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1379</v>
@@ -3823,19 +3823,19 @@
         <v>1382363</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1315476</v>
+        <v>1313131</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1443964</v>
+        <v>1453600</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2076948671252157</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1976452739079041</v>
+        <v>0.1972929366567031</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2169501178274978</v>
+        <v>0.2183978731575587</v>
       </c>
     </row>
     <row r="48">
@@ -4171,19 +4171,19 @@
         <v>72671</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58366</v>
+        <v>57707</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88393</v>
+        <v>89099</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2465622715569439</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1980277925869043</v>
+        <v>0.1957913796885263</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2999027788559777</v>
+        <v>0.3022987318071717</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -4192,19 +4192,19 @@
         <v>84825</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68509</v>
+        <v>69884</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>100961</v>
+        <v>101355</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.295306415728504</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2385045508961439</v>
+        <v>0.2432918419304085</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3514797944727744</v>
+        <v>0.3528523481976842</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>146</v>
@@ -4213,19 +4213,19 @@
         <v>157497</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>136518</v>
+        <v>135422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>182035</v>
+        <v>178827</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2706205532585736</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2345736786998191</v>
+        <v>0.2326909841191848</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3127837597671488</v>
+        <v>0.3072715582765065</v>
       </c>
     </row>
     <row r="5">
@@ -4242,19 +4242,19 @@
         <v>79035</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>63929</v>
+        <v>64302</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95951</v>
+        <v>97704</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2681531731091003</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2168999377828156</v>
+        <v>0.2181650724070719</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3255456718621567</v>
+        <v>0.331496051595625</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -4263,19 +4263,19 @@
         <v>62894</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49181</v>
+        <v>47325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81065</v>
+        <v>78019</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2189557751453774</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1712160309852677</v>
+        <v>0.1647562762193974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2822143002875909</v>
+        <v>0.2716118148655577</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>129</v>
@@ -4284,19 +4284,19 @@
         <v>141929</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>119779</v>
+        <v>121517</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>164320</v>
+        <v>164100</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2438711823322675</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2058116483360916</v>
+        <v>0.2087989964357609</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2823451590473505</v>
+        <v>0.2819667312180822</v>
       </c>
     </row>
     <row r="6">
@@ -4313,19 +4313,19 @@
         <v>71526</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56752</v>
+        <v>56880</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>87434</v>
+        <v>88003</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2426771951287836</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1925493163207234</v>
+        <v>0.1929842811135128</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2966497615468774</v>
+        <v>0.2985799083025139</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>57</v>
@@ -4334,19 +4334,19 @@
         <v>65496</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>50401</v>
+        <v>51623</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81490</v>
+        <v>81471</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2280135831575749</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.175463384197585</v>
+        <v>0.1797177359361095</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2836965744713668</v>
+        <v>0.2836290357918428</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>123</v>
@@ -4355,19 +4355,19 @@
         <v>137022</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>114183</v>
+        <v>118237</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>159927</v>
+        <v>160177</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2354397861320213</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1961956673375011</v>
+        <v>0.2031620084118079</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2747964019523821</v>
+        <v>0.2752268838763993</v>
       </c>
     </row>
     <row r="7">
@@ -4384,19 +4384,19 @@
         <v>71506</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56472</v>
+        <v>58203</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>85678</v>
+        <v>88426</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2426073602051721</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1916018152010044</v>
+        <v>0.1974725566952127</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.29069178420091</v>
+        <v>0.3000163594913515</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -4405,19 +4405,19 @@
         <v>74030</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59189</v>
+        <v>57783</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91066</v>
+        <v>90702</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2577242259685437</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2060558956981637</v>
+        <v>0.2011640970933466</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3170325083476067</v>
+        <v>0.3157647290268887</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -4426,19 +4426,19 @@
         <v>145536</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125764</v>
+        <v>125492</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>168266</v>
+        <v>169671</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2500684782771375</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2160952569967929</v>
+        <v>0.2156284845855853</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2891257692348924</v>
+        <v>0.2915402763255537</v>
       </c>
     </row>
     <row r="8">
@@ -4530,19 +4530,19 @@
         <v>49887</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>36772</v>
+        <v>37683</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>65478</v>
+        <v>65298</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09868333613102558</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07273934158220072</v>
+        <v>0.07454238610697903</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1295248053930807</v>
+        <v>0.1291689437598948</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -4551,19 +4551,19 @@
         <v>54483</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>40464</v>
+        <v>42533</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>69192</v>
+        <v>69461</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1040210606481828</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07725619486602765</v>
+        <v>0.08120554955196209</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1321049939465431</v>
+        <v>0.132618893300723</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>100</v>
@@ -4572,19 +4572,19 @@
         <v>104370</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>86141</v>
+        <v>84718</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>123524</v>
+        <v>124477</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1013994872283741</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0836891330779555</v>
+        <v>0.08230692400981031</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1200085031154005</v>
+        <v>0.1209345253311906</v>
       </c>
     </row>
     <row r="10">
@@ -4601,19 +4601,19 @@
         <v>296107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>272465</v>
+        <v>272544</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>318791</v>
+        <v>318971</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5857391285257737</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5389713049488594</v>
+        <v>0.5391278597865388</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6306118293105581</v>
+        <v>0.6309663932189612</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>280</v>
@@ -4622,19 +4622,19 @@
         <v>309165</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>285333</v>
+        <v>286190</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>331707</v>
+        <v>331115</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5902751262630493</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5447724499275293</v>
+        <v>0.5464098731120547</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6333119328610991</v>
+        <v>0.6321821447480364</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>550</v>
@@ -4643,19 +4643,19 @@
         <v>605272</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>573663</v>
+        <v>572627</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>637397</v>
+        <v>635323</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.58804731344466</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5573374340485302</v>
+        <v>0.5563311942310425</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6192580328255173</v>
+        <v>0.6172423104137256</v>
       </c>
     </row>
     <row r="11">
@@ -4672,19 +4672,19 @@
         <v>119700</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>100300</v>
+        <v>100635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138699</v>
+        <v>139355</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2367816371669353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1984070375788836</v>
+        <v>0.1990687001831962</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2743644552914392</v>
+        <v>0.275662095902129</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>116</v>
@@ -4693,19 +4693,19 @@
         <v>126607</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>106934</v>
+        <v>108255</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>146431</v>
+        <v>148289</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2417248540459129</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2041633115775109</v>
+        <v>0.2066869260334083</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2795735085005561</v>
+        <v>0.2831209996336084</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>230</v>
@@ -4714,19 +4714,19 @@
         <v>246307</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>214830</v>
+        <v>218568</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>272855</v>
+        <v>275065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2392970393588449</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2087159503747952</v>
+        <v>0.2123475507362606</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2650899216700378</v>
+        <v>0.26723695013703</v>
       </c>
     </row>
     <row r="12">
@@ -4743,19 +4743,19 @@
         <v>39833</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29385</v>
+        <v>29413</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52583</v>
+        <v>53587</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07879589817626545</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05812736799965466</v>
+        <v>0.05818364408476883</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1040163813909772</v>
+        <v>0.1060025833497517</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -4764,19 +4764,19 @@
         <v>33510</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23065</v>
+        <v>23711</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46027</v>
+        <v>46422</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06397895904285503</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04403705480330496</v>
+        <v>0.04527058180631563</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08787800986919225</v>
+        <v>0.08863065150522995</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>72</v>
@@ -4785,19 +4785,19 @@
         <v>73343</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>57210</v>
+        <v>59180</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>91768</v>
+        <v>90417</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07125615996812101</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05558230712747188</v>
+        <v>0.05749603623640196</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08915623687175195</v>
+        <v>0.08784401089324892</v>
       </c>
     </row>
     <row r="13">
@@ -4889,19 +4889,19 @@
         <v>125267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108485</v>
+        <v>107178</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144639</v>
+        <v>142625</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3865704343524601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3347817299107947</v>
+        <v>0.3307479004495912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4463529761287335</v>
+        <v>0.440136655198487</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>134</v>
@@ -4910,19 +4910,19 @@
         <v>145427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>127307</v>
+        <v>126914</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>165284</v>
+        <v>163055</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4264480467603706</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.373312804913099</v>
+        <v>0.3721613639351925</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4846766843225549</v>
+        <v>0.4781378800595505</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>258</v>
@@ -4931,19 +4931,19 @@
         <v>270694</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>246182</v>
+        <v>245402</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>296718</v>
+        <v>298710</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4070181245455783</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3701624452668117</v>
+        <v>0.3689883830185835</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4461488212964115</v>
+        <v>0.449143256355967</v>
       </c>
     </row>
     <row r="15">
@@ -5007,19 +5007,19 @@
         <v>107090</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>90629</v>
+        <v>91641</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>123215</v>
+        <v>124054</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3304792801388113</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2796792633314778</v>
+        <v>0.2828031150362345</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3802380639465416</v>
+        <v>0.382828955761791</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>101</v>
@@ -5028,19 +5028,19 @@
         <v>107115</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>89279</v>
+        <v>89664</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>125453</v>
+        <v>124916</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3141004501678771</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2617997607190097</v>
+        <v>0.2629297023366954</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3678759419669298</v>
+        <v>0.3663017832283835</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>208</v>
@@ -5049,19 +5049,19 @@
         <v>214205</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>188116</v>
+        <v>189236</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>237408</v>
+        <v>238199</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.32208085253122</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2828536795162024</v>
+        <v>0.2845367181125744</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3569693945374397</v>
+        <v>0.3581586503059055</v>
       </c>
     </row>
     <row r="17">
@@ -5078,19 +5078,19 @@
         <v>91689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>76094</v>
+        <v>75039</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108641</v>
+        <v>109471</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2829502855087286</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.234824407539723</v>
+        <v>0.2315701346766632</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3352643229761659</v>
+        <v>0.3378248106135773</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -5099,19 +5099,19 @@
         <v>88478</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>71135</v>
+        <v>73742</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>106617</v>
+        <v>106510</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2594515030717524</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2085945886755867</v>
+        <v>0.2162408675817153</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3126411291554143</v>
+        <v>0.3123274048970854</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>170</v>
@@ -5120,19 +5120,19 @@
         <v>180167</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>156934</v>
+        <v>155793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>204019</v>
+        <v>201214</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2709010229232017</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2359672530949467</v>
+        <v>0.2342517377997761</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3067650631431794</v>
+        <v>0.3025470343596152</v>
       </c>
     </row>
     <row r="18">
@@ -5224,19 +5224,19 @@
         <v>95549</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>78183</v>
+        <v>80751</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>114266</v>
+        <v>117653</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2554907311244003</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2090556356820176</v>
+        <v>0.2159219306256392</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3055378543651993</v>
+        <v>0.3145965100891574</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>104</v>
@@ -5245,19 +5245,19 @@
         <v>105080</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>89068</v>
+        <v>88240</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>122296</v>
+        <v>122178</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2701637462548802</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2289948674816626</v>
+        <v>0.2268670941600548</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3144255951383413</v>
+        <v>0.3141221987582657</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>193</v>
@@ -5266,19 +5266,19 @@
         <v>200629</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>176331</v>
+        <v>178077</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>227803</v>
+        <v>228470</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2629711822501694</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2311227054689076</v>
+        <v>0.2334113440569459</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2985888266680693</v>
+        <v>0.2994621500422628</v>
       </c>
     </row>
     <row r="20">
@@ -5295,19 +5295,19 @@
         <v>21906</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13803</v>
+        <v>14039</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32525</v>
+        <v>32526</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05857474269301869</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03690714895843961</v>
+        <v>0.03753965217218755</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08696956005563082</v>
+        <v>0.08697274093618307</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -5316,19 +5316,19 @@
         <v>26768</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17631</v>
+        <v>17586</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37793</v>
+        <v>38018</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06882159289729993</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0453284083969971</v>
+        <v>0.04521403974756358</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09716585170208648</v>
+        <v>0.09774606975508114</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>49</v>
@@ -5337,19 +5337,19 @@
         <v>48674</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36619</v>
+        <v>36330</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>63081</v>
+        <v>63540</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0637986902910129</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04799745939911</v>
+        <v>0.04761889405306868</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08268164388089579</v>
+        <v>0.08328344813982853</v>
       </c>
     </row>
     <row r="21">
@@ -5366,19 +5366,19 @@
         <v>129072</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>109065</v>
+        <v>110621</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>150021</v>
+        <v>147723</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3451286590142744</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2916314945551879</v>
+        <v>0.2957932301132595</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.401145451530607</v>
+        <v>0.3950012875466568</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>119</v>
@@ -5387,19 +5387,19 @@
         <v>131830</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>113582</v>
+        <v>112400</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>152212</v>
+        <v>151004</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3389371561058349</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.292020647613929</v>
+        <v>0.288982379450956</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3913390596643784</v>
+        <v>0.3882345835317129</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>231</v>
@@ -5408,19 +5408,19 @@
         <v>260902</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>233423</v>
+        <v>233142</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>289422</v>
+        <v>290024</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3419721683755215</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3059550514856658</v>
+        <v>0.3055866660843366</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3793546316103345</v>
+        <v>0.3801434297013488</v>
       </c>
     </row>
     <row r="22">
@@ -5437,19 +5437,19 @@
         <v>127455</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>108156</v>
+        <v>108605</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>145553</v>
+        <v>146493</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3408058671683066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2892008593723061</v>
+        <v>0.2904003746163807</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3891979705235748</v>
+        <v>0.3917112275648569</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>120</v>
@@ -5458,19 +5458,19 @@
         <v>125272</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>106814</v>
+        <v>107704</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>143810</v>
+        <v>145338</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.322077504741985</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2746203011496482</v>
+        <v>0.2769099004421154</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3697387921899471</v>
+        <v>0.373665419890775</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>242</v>
@@ -5479,19 +5479,19 @@
         <v>252728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>225495</v>
+        <v>222315</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>280487</v>
+        <v>276348</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3312579590832961</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2955634108412643</v>
+        <v>0.2913947262762863</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3676424238401714</v>
+        <v>0.3622178888351817</v>
       </c>
     </row>
     <row r="23">
@@ -5583,19 +5583,19 @@
         <v>57763</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46220</v>
+        <v>45148</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>72756</v>
+        <v>71396</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2716739202067936</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2173860527726857</v>
+        <v>0.2123429331210684</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3421920939217796</v>
+        <v>0.335793596867086</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>67</v>
@@ -5604,19 +5604,19 @@
         <v>65232</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>52054</v>
+        <v>53040</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>78147</v>
+        <v>78814</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2970619609855224</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.237049852759561</v>
+        <v>0.2415386820424671</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3558766900713625</v>
+        <v>0.3589138812782121</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>123</v>
@@ -5625,19 +5625,19 @@
         <v>122995</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>106247</v>
+        <v>104447</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>144080</v>
+        <v>142526</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.28457273710989</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2458230378816883</v>
+        <v>0.2416580555904519</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3333571877224565</v>
+        <v>0.3297606502853097</v>
       </c>
     </row>
     <row r="25">
@@ -5701,19 +5701,19 @@
         <v>89014</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75644</v>
+        <v>74048</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>104845</v>
+        <v>103784</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4186577511288654</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3557744370433218</v>
+        <v>0.3482690262194583</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4931128893472735</v>
+        <v>0.4881245287360448</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -5722,19 +5722,19 @@
         <v>89371</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>75415</v>
+        <v>74554</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>103039</v>
+        <v>103243</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4069886080268829</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3434351974407969</v>
+        <v>0.3395127318794313</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4692304136305925</v>
+        <v>0.4701615400950693</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>164</v>
@@ -5743,19 +5743,19 @@
         <v>178385</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>158024</v>
+        <v>157816</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>200016</v>
+        <v>199690</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4127290486503893</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3656204283177394</v>
+        <v>0.3651392508652623</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4627759096839276</v>
+        <v>0.462022516350256</v>
       </c>
     </row>
     <row r="27">
@@ -5772,19 +5772,19 @@
         <v>65841</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>53157</v>
+        <v>51681</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>80283</v>
+        <v>80595</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.309668328664341</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2500139408295306</v>
+        <v>0.2430703603291671</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3775921241041799</v>
+        <v>0.3790602624258999</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>61</v>
@@ -5793,19 +5793,19 @@
         <v>64988</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>51166</v>
+        <v>52429</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>79457</v>
+        <v>81527</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2959494309875947</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.233006187282647</v>
+        <v>0.238756449568377</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3618422840473223</v>
+        <v>0.3712668141140403</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>121</v>
@@ -5814,19 +5814,19 @@
         <v>130829</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>111662</v>
+        <v>112582</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>151070</v>
+        <v>151132</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3026982142397208</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2583509822491555</v>
+        <v>0.2604803736280559</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3495294268852088</v>
+        <v>0.3496734764650086</v>
       </c>
     </row>
     <row r="28">
@@ -5918,19 +5918,19 @@
         <v>47891</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36494</v>
+        <v>35888</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>61979</v>
+        <v>62162</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1747979979736015</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1331985427323103</v>
+        <v>0.1309874799082454</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2262153662510522</v>
+        <v>0.2268829671235232</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>45</v>
@@ -5939,19 +5939,19 @@
         <v>47279</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>35721</v>
+        <v>35955</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>60759</v>
+        <v>62363</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1688347702454944</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1275608912698072</v>
+        <v>0.1283966327817264</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2169709820332488</v>
+        <v>0.2226998942073911</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>89</v>
@@ -5960,19 +5960,19 @@
         <v>95170</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>80218</v>
+        <v>76972</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>115507</v>
+        <v>114852</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.171783823898799</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1447949766373192</v>
+        <v>0.1389359878960307</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2084921320374498</v>
+        <v>0.2073088285413867</v>
       </c>
     </row>
     <row r="30">
@@ -5989,19 +5989,19 @@
         <v>21592</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13959</v>
+        <v>13862</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>32318</v>
+        <v>32681</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07880942239041826</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05094986199874113</v>
+        <v>0.0505955711838756</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1179558675513011</v>
+        <v>0.1192821467162816</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>28</v>
@@ -6010,19 +6010,19 @@
         <v>26119</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17761</v>
+        <v>17476</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>35637</v>
+        <v>35566</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0932724957238093</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06342425773423829</v>
+        <v>0.06240748492118214</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.127261603854857</v>
+        <v>0.1270087797473904</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>50</v>
@@ -6031,19 +6031,19 @@
         <v>47711</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>36022</v>
+        <v>36429</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>61141</v>
+        <v>61401</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08611992983221822</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0650196807612083</v>
+        <v>0.06575503969707587</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1103608184325559</v>
+        <v>0.1108290294529351</v>
       </c>
     </row>
     <row r="31">
@@ -6060,19 +6060,19 @@
         <v>104932</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>89401</v>
+        <v>90479</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>122223</v>
+        <v>124084</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3829912355827627</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3263039001882101</v>
+        <v>0.3302393702717307</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4461008543449277</v>
+        <v>0.4528919592843018</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>98</v>
@@ -6081,19 +6081,19 @@
         <v>105512</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>89822</v>
+        <v>89256</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>121569</v>
+        <v>122641</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3767876715664922</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.32075652388965</v>
+        <v>0.3187372469066143</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.434128414324243</v>
+        <v>0.437955561841655</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>195</v>
@@ -6102,19 +6102,19 @@
         <v>210445</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>187324</v>
+        <v>187425</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>235307</v>
+        <v>232400</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3798555810879518</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3381231980246566</v>
+        <v>0.3383050217671868</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4247326093005697</v>
+        <v>0.419486036057231</v>
       </c>
     </row>
     <row r="32">
@@ -6131,19 +6131,19 @@
         <v>99565</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>83385</v>
+        <v>84033</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>117225</v>
+        <v>115556</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3634013440532175</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3043466444560283</v>
+        <v>0.3067099325840643</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4278574391525186</v>
+        <v>0.4217658945545041</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>98</v>
@@ -6152,19 +6152,19 @@
         <v>101121</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>85053</v>
+        <v>86195</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>117771</v>
+        <v>118153</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3611050624642042</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3037264385248817</v>
+        <v>0.3078056364909485</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4205631131280141</v>
+        <v>0.4219280588977622</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>196</v>
@@ -6173,19 +6173,19 @@
         <v>200686</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>177737</v>
+        <v>178751</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>223287</v>
+        <v>224144</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.362240665181031</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3208182874007193</v>
+        <v>0.3226488041956798</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4030371362672737</v>
+        <v>0.4045829874686774</v>
       </c>
     </row>
     <row r="33">
@@ -6277,19 +6277,19 @@
         <v>221096</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>195385</v>
+        <v>196824</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>246074</v>
+        <v>245597</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3335844089952876</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2947921277976915</v>
+        <v>0.2969639544283775</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.371270495105223</v>
+        <v>0.3705519766176916</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>230</v>
@@ -6298,19 +6298,19 @@
         <v>239251</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>215446</v>
+        <v>214935</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>264359</v>
+        <v>265806</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3448155668225369</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3105071306641002</v>
+        <v>0.3097708813556227</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3810019217524387</v>
+        <v>0.3830869758224408</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>447</v>
@@ -6319,19 +6319,19 @@
         <v>460347</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>421816</v>
+        <v>422776</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>494021</v>
+        <v>495944</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3393285757761898</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3109266502568844</v>
+        <v>0.3116347433209154</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3641504887143448</v>
+        <v>0.3655675196282889</v>
       </c>
     </row>
     <row r="35">
@@ -6348,19 +6348,19 @@
         <v>241014</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>217650</v>
+        <v>215449</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>268660</v>
+        <v>267383</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3636361776510886</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.328385746480868</v>
+        <v>0.3250640577975147</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4053486527235173</v>
+        <v>0.4034219874266286</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>217</v>
@@ -6369,19 +6369,19 @@
         <v>248717</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>222278</v>
+        <v>223314</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>279987</v>
+        <v>276400</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3584571478016408</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.320353655497103</v>
+        <v>0.32184592500673</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4035250102546047</v>
+        <v>0.3983552504867505</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>426</v>
@@ -6390,19 +6390,19 @@
         <v>489730</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>453819</v>
+        <v>453865</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>530568</v>
+        <v>532304</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3609873669339673</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3345164238877463</v>
+        <v>0.3345503507498297</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3910892416688871</v>
+        <v>0.3923694066010525</v>
       </c>
     </row>
     <row r="36">
@@ -6419,19 +6419,19 @@
         <v>123072</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>102587</v>
+        <v>102176</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>145610</v>
+        <v>143817</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1856882272129009</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1547814621184711</v>
+        <v>0.1541612153390127</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2196938587049708</v>
+        <v>0.2169872897174775</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>115</v>
@@ -6440,19 +6440,19 @@
         <v>121823</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>103202</v>
+        <v>101044</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>144696</v>
+        <v>143492</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1755750106441958</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1487378569619756</v>
+        <v>0.1456269257659799</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2085402916886122</v>
+        <v>0.2068039072275986</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>231</v>
@@ -6461,19 +6461,19 @@
         <v>244895</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>216654</v>
+        <v>216900</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>274192</v>
+        <v>278577</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1805158306037925</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1596988829182015</v>
+        <v>0.1598800500580773</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2021108652723127</v>
+        <v>0.2053434080460346</v>
       </c>
     </row>
     <row r="37">
@@ -6490,19 +6490,19 @@
         <v>77607</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>61815</v>
+        <v>60783</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>93306</v>
+        <v>94532</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1170911861407229</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0932649300494104</v>
+        <v>0.09170835471900429</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1407776330377734</v>
+        <v>0.1426279930570338</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>74</v>
@@ -6511,19 +6511,19 @@
         <v>84062</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>67545</v>
+        <v>67507</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>105163</v>
+        <v>104575</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1211522747316264</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09734825945064977</v>
+        <v>0.09729286082053364</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1515631463515555</v>
+        <v>0.150715911281818</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>150</v>
@@ -6532,19 +6532,19 @@
         <v>161669</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>138425</v>
+        <v>138807</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>186255</v>
+        <v>188586</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1191682266860504</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1020353144846755</v>
+        <v>0.1023169671143852</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1372915155473385</v>
+        <v>0.139009168693259</v>
       </c>
     </row>
     <row r="38">
@@ -6636,19 +6636,19 @@
         <v>277615</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>248864</v>
+        <v>251496</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>304589</v>
+        <v>306544</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3563292993141037</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3194261750344667</v>
+        <v>0.3228041871128409</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3909502098477556</v>
+        <v>0.3934602019395569</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>296</v>
@@ -6657,19 +6657,19 @@
         <v>310323</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>279489</v>
+        <v>282151</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>338923</v>
+        <v>339693</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3766727026831468</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3392461255372811</v>
+        <v>0.3424771691942592</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.4113876934146323</v>
+        <v>0.4123226648988374</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>557</v>
@@ -6678,19 +6678,19 @@
         <v>587938</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>549373</v>
+        <v>549766</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>628562</v>
+        <v>629884</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.3667849970186807</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3427259685725517</v>
+        <v>0.3429713323554718</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3921280698413461</v>
+        <v>0.3929526015262594</v>
       </c>
     </row>
     <row r="40">
@@ -6707,19 +6707,19 @@
         <v>97969</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>79760</v>
+        <v>79908</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>117783</v>
+        <v>115804</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1257471152309543</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1023750276328511</v>
+        <v>0.1025641194756937</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1511782910199912</v>
+        <v>0.1486387324638147</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>96</v>
@@ -6728,19 +6728,19 @@
         <v>103511</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>85152</v>
+        <v>85751</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>122841</v>
+        <v>125230</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1256420792679359</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1033576650520807</v>
+        <v>0.104085079875658</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1491060514314282</v>
+        <v>0.1520049870570161</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>190</v>
@@ -6749,19 +6749,19 @@
         <v>201480</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>176055</v>
+        <v>176201</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>230534</v>
+        <v>230347</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1256931309365122</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1098320862444862</v>
+        <v>0.1099227048521638</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1438187990121074</v>
+        <v>0.1437019245055166</v>
       </c>
     </row>
     <row r="41">
@@ -6778,19 +6778,19 @@
         <v>273540</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>248235</v>
+        <v>246651</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>303124</v>
+        <v>303461</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3510988079011952</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3186183647601381</v>
+        <v>0.3165855357057917</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3890703076902576</v>
+        <v>0.3895035699149698</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>250</v>
@@ -6799,19 +6799,19 @@
         <v>284430</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>255031</v>
+        <v>257861</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>312841</v>
+        <v>315930</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3452439145404761</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3095590585979574</v>
+        <v>0.3129943027337633</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3797291888117847</v>
+        <v>0.3834784718940948</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>494</v>
@@ -6820,19 +6820,19 @@
         <v>557971</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>518736</v>
+        <v>523031</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>595918</v>
+        <v>601370</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3480896263025366</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3236130676471912</v>
+        <v>0.3262927168839055</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3717632285179784</v>
+        <v>0.3751640178480628</v>
       </c>
     </row>
     <row r="42">
@@ -6849,19 +6849,19 @@
         <v>129973</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>109212</v>
+        <v>109825</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>151775</v>
+        <v>151546</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1668247775537467</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.140176863691294</v>
+        <v>0.140964160485568</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1948080657389256</v>
+        <v>0.1945147683900689</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>115</v>
@@ -6870,19 +6870,19 @@
         <v>125589</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>106120</v>
+        <v>104578</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>148048</v>
+        <v>148276</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1524413035084412</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.128809364656714</v>
+        <v>0.1269374666787881</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1797016820715187</v>
+        <v>0.1799782130465699</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>233</v>
@@ -6891,19 +6891,19 @@
         <v>255562</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>228530</v>
+        <v>225450</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>285625</v>
+        <v>283081</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1594322457422705</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1425684276641853</v>
+        <v>0.1406470025147241</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1781870035718874</v>
+        <v>0.1765996502977369</v>
       </c>
     </row>
     <row r="43">
@@ -6995,19 +6995,19 @@
         <v>947739</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>895167</v>
+        <v>890971</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1000296</v>
+        <v>1004127</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2765685898087414</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2612268920514385</v>
+        <v>0.2600024996048106</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2919056175919885</v>
+        <v>0.2930236874071753</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1003</v>
@@ -7016,19 +7016,19 @@
         <v>1051901</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>998623</v>
+        <v>999462</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1112965</v>
+        <v>1110854</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2956182304137982</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2806454099774012</v>
+        <v>0.2808810436696618</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3127791417736436</v>
+        <v>0.3121858175650024</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1913</v>
@@ -7037,19 +7037,19 @@
         <v>1999640</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1927974</v>
+        <v>1924470</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2085550</v>
+        <v>2082268</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2862727638714805</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2760128619789149</v>
+        <v>0.2755111831712799</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2985718072943925</v>
+        <v>0.298101883862235</v>
       </c>
     </row>
     <row r="45">
@@ -7066,19 +7066,19 @@
         <v>757623</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>708374</v>
+        <v>709988</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>805243</v>
+        <v>805513</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2210890592453012</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2067171687994415</v>
+        <v>0.2071882819694474</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2349853730155963</v>
+        <v>0.2350641041063159</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>705</v>
@@ -7087,19 +7087,19 @@
         <v>777174</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>727854</v>
+        <v>722991</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>831951</v>
+        <v>826088</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.2184110449855174</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2045504240050612</v>
+        <v>0.2031839115355821</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2338050830709474</v>
+        <v>0.2321574200147043</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1394</v>
@@ -7108,19 +7108,19 @@
         <v>1534797</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1456458</v>
+        <v>1464090</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1603525</v>
+        <v>1607769</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2197248384151958</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2085096421963147</v>
+        <v>0.2096022421649207</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.229564046141469</v>
+        <v>0.2301716733417742</v>
       </c>
     </row>
     <row r="46">
@@ -7137,19 +7137,19 @@
         <v>1017947</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>964833</v>
+        <v>956448</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1075889</v>
+        <v>1069980</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2970565651903703</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2815567842413962</v>
+        <v>0.2791099545837697</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3139651795813106</v>
+        <v>0.3122408791022641</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>940</v>
@@ -7158,19 +7158,19 @@
         <v>1032184</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>971614</v>
+        <v>976949</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1083572</v>
+        <v>1087267</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2900771150312048</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2730548500488851</v>
+        <v>0.2745541497072124</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.304518713523454</v>
+        <v>0.3055570949853988</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1876</v>
@@ -7179,19 +7179,19 @@
         <v>2050131</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1978020</v>
+        <v>1969089</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2128764</v>
+        <v>2124545</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2935011280768336</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2831775567397444</v>
+        <v>0.2818989459291504</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3047583409954296</v>
+        <v>0.3041544207561965</v>
       </c>
     </row>
     <row r="47">
@@ -7208,19 +7208,19 @@
         <v>703469</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>654503</v>
+        <v>656712</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>748782</v>
+        <v>750918</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.205285785755587</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1909966108921087</v>
+        <v>0.1916411259960884</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2185089777429371</v>
+        <v>0.2191322725240171</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>650</v>
@@ -7229,19 +7229,19 @@
         <v>697050</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>651835</v>
+        <v>646647</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>747837</v>
+        <v>743451</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1958936095694797</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1831867717365983</v>
+        <v>0.1817287516895451</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2101664254391963</v>
+        <v>0.2089338892195386</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1324</v>
@@ -7250,19 +7250,19 @@
         <v>1400519</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1329267</v>
+        <v>1333201</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1469273</v>
+        <v>1469388</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.20050126963649</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1903006508454645</v>
+        <v>0.1908638286561362</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2103442482660712</v>
+        <v>0.210360702392381</v>
       </c>
     </row>
     <row r="48">
@@ -7598,19 +7598,19 @@
         <v>75551</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61246</v>
+        <v>60098</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92136</v>
+        <v>90802</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.257185813420252</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2084886281160036</v>
+        <v>0.204579793207727</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3136434478297433</v>
+        <v>0.3091007825629792</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -7619,19 +7619,19 @@
         <v>85400</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69404</v>
+        <v>70969</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>100470</v>
+        <v>102072</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2958044766820676</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2403982136807554</v>
+        <v>0.2458210033663261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3480032889669074</v>
+        <v>0.3535538735521319</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>150</v>
@@ -7640,19 +7640,19 @@
         <v>160951</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>140307</v>
+        <v>138254</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>186210</v>
+        <v>183698</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2763274666743294</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2408854532602352</v>
+        <v>0.2373610998047312</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3196939889993581</v>
+        <v>0.3153804718623716</v>
       </c>
     </row>
     <row r="5">
@@ -7669,19 +7669,19 @@
         <v>75268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60428</v>
+        <v>59564</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91840</v>
+        <v>92750</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2562222179412064</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2057058333932857</v>
+        <v>0.20276196153143</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3126350226298177</v>
+        <v>0.3157320714053424</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -7690,19 +7690,19 @@
         <v>72937</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58004</v>
+        <v>58439</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>88154</v>
+        <v>88666</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2526383054784431</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2009136537768435</v>
+        <v>0.2024203663243311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3053457711010846</v>
+        <v>0.3071199057363722</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>132</v>
@@ -7711,19 +7711,19 @@
         <v>148206</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126439</v>
+        <v>127205</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>169509</v>
+        <v>172955</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.254445822699608</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2170753691200999</v>
+        <v>0.2183918676931679</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.291020783693839</v>
+        <v>0.296936678363747</v>
       </c>
     </row>
     <row r="6">
@@ -7740,19 +7740,19 @@
         <v>71330</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55698</v>
+        <v>55784</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>87469</v>
+        <v>86798</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2428160959995963</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1896027561679439</v>
+        <v>0.1898964686288457</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2977548145690513</v>
+        <v>0.2954699188695569</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>66</v>
@@ -7761,19 +7761,19 @@
         <v>66685</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52746</v>
+        <v>53167</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>82949</v>
+        <v>81826</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2309807641021195</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1826982059205709</v>
+        <v>0.1841596577900427</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2873156874246056</v>
+        <v>0.2834272933415005</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>127</v>
@@ -7782,19 +7782,19 @@
         <v>138015</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>117325</v>
+        <v>117418</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>159469</v>
+        <v>159050</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.236949817879286</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2014293288975065</v>
+        <v>0.2015887811096136</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2737831899403458</v>
+        <v>0.2730632998619907</v>
       </c>
     </row>
     <row r="7">
@@ -7811,19 +7811,19 @@
         <v>71612</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57689</v>
+        <v>56948</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89041</v>
+        <v>88456</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2437758726389452</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1963812944182493</v>
+        <v>0.1938570389476813</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3031074160980028</v>
+        <v>0.3011139770167502</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -7832,19 +7832,19 @@
         <v>63681</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50954</v>
+        <v>50093</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78083</v>
+        <v>77141</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2205764537373697</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1764923381535005</v>
+        <v>0.1735095563058822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2704620676149568</v>
+        <v>0.2672000065078551</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>134</v>
@@ -7853,19 +7853,19 @@
         <v>135293</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114413</v>
+        <v>116780</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>158099</v>
+        <v>156372</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2322768927467766</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1964284828024407</v>
+        <v>0.2004935721586138</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2714306260670752</v>
+        <v>0.2684660885650305</v>
       </c>
     </row>
     <row r="8">
@@ -7957,19 +7957,19 @@
         <v>45404</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>34666</v>
+        <v>34234</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>60717</v>
+        <v>58684</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09034347767190413</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06897632846549542</v>
+        <v>0.06811665281963181</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1208123645473503</v>
+        <v>0.116767504820345</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>53</v>
@@ -7978,19 +7978,19 @@
         <v>53582</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>40478</v>
+        <v>40360</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>69003</v>
+        <v>67520</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1024340870523325</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07738420319288022</v>
+        <v>0.07715718992253201</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1319165031597582</v>
+        <v>0.1290810172144406</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>102</v>
@@ -7999,19 +7999,19 @@
         <v>98986</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>83331</v>
+        <v>82310</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>120227</v>
+        <v>119060</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09650966164516324</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08124665032190173</v>
+        <v>0.08025123239391765</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1172193495751228</v>
+        <v>0.1160817073120311</v>
       </c>
     </row>
     <row r="10">
@@ -8028,19 +8028,19 @@
         <v>299016</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>276768</v>
+        <v>274502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>320403</v>
+        <v>320390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5949670083950316</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5507005580577479</v>
+        <v>0.5461915988600207</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6375218367999888</v>
+        <v>0.6374974819163806</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>279</v>
@@ -8049,19 +8049,19 @@
         <v>305002</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>280860</v>
+        <v>282056</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>327995</v>
+        <v>329409</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5830839975244392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5369300900080528</v>
+        <v>0.539216672420838</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6270412495994589</v>
+        <v>0.629744477983135</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>559</v>
@@ -8070,19 +8070,19 @@
         <v>604017</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>570688</v>
+        <v>570437</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>639286</v>
+        <v>635438</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.588906699201442</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.55641114354476</v>
+        <v>0.5561660777302728</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6232933835851275</v>
+        <v>0.6195416465425283</v>
       </c>
     </row>
     <row r="11">
@@ -8099,19 +8099,19 @@
         <v>118554</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>101387</v>
+        <v>99310</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>139263</v>
+        <v>139649</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2358924137833492</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.201734384600346</v>
+        <v>0.1976033427760396</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2770998237159391</v>
+        <v>0.2778675390723285</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -8120,19 +8120,19 @@
         <v>123291</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>103308</v>
+        <v>104408</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>146258</v>
+        <v>144295</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2357003019785858</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1974985248499173</v>
+        <v>0.1996006961281375</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2796074322711983</v>
+        <v>0.275855023548661</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>220</v>
@@ -8141,19 +8141,19 @@
         <v>241845</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>213576</v>
+        <v>214484</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>272208</v>
+        <v>268118</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2357944371889251</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2082329113252132</v>
+        <v>0.2091181223704379</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.265398314845508</v>
+        <v>0.261410296478765</v>
       </c>
     </row>
     <row r="12">
@@ -8170,19 +8170,19 @@
         <v>39601</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28967</v>
+        <v>28692</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53611</v>
+        <v>55658</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07879710014971507</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05763789055677789</v>
+        <v>0.05709072583547319</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1066716561247475</v>
+        <v>0.1107454630526924</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -8191,19 +8191,19 @@
         <v>41209</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29484</v>
+        <v>29261</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>53771</v>
+        <v>54013</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07878161344464246</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05636546312643428</v>
+        <v>0.05593982371153534</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1027958925364076</v>
+        <v>0.1032578504455751</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -8212,19 +8212,19 @@
         <v>80811</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>65839</v>
+        <v>65035</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>100114</v>
+        <v>99735</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07878920196446959</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06419202809723425</v>
+        <v>0.06340841813515113</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09760969291635704</v>
+        <v>0.09723955732394991</v>
       </c>
     </row>
     <row r="13">
@@ -8316,19 +8316,19 @@
         <v>130534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>115933</v>
+        <v>113474</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>147961</v>
+        <v>147182</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4097560135614733</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3639234910935472</v>
+        <v>0.3562023664804944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4644622942200186</v>
+        <v>0.4620141352554477</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -8337,19 +8337,19 @@
         <v>139861</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>123206</v>
+        <v>122585</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>158382</v>
+        <v>158138</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.415871532017118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3663484070357644</v>
+        <v>0.364500236603675</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4709428639501373</v>
+        <v>0.4702151617477062</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>277</v>
@@ -8358,19 +8358,19 @@
         <v>270395</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>244615</v>
+        <v>247619</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>296791</v>
+        <v>295263</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4128966236784846</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3735302602168685</v>
+        <v>0.3781162689912643</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4532032861125764</v>
+        <v>0.450869552753678</v>
       </c>
     </row>
     <row r="15">
@@ -8434,19 +8434,19 @@
         <v>101506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85531</v>
+        <v>85732</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118035</v>
+        <v>117798</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3186350807746306</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2684890059801203</v>
+        <v>0.2691194211688161</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3705218469216032</v>
+        <v>0.3697767176196777</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>109</v>
@@ -8455,19 +8455,19 @@
         <v>113567</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>97263</v>
+        <v>96124</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>131940</v>
+        <v>131357</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3376872581933453</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2892073813607422</v>
+        <v>0.2858211145425538</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3923188827666135</v>
+        <v>0.3905854964132818</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>212</v>
@@ -8476,19 +8476,19 @@
         <v>215073</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>191024</v>
+        <v>191899</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>240696</v>
+        <v>237123</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3284192816704811</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2916951177148318</v>
+        <v>0.2930322595887828</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3675459604487959</v>
+        <v>0.3620891557988489</v>
       </c>
     </row>
     <row r="17">
@@ -8505,19 +8505,19 @@
         <v>86525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71776</v>
+        <v>72407</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>101820</v>
+        <v>103342</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2716089056638961</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2253111762880266</v>
+        <v>0.2272914574249436</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3196223463306232</v>
+        <v>0.3243995359455163</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>87</v>
@@ -8526,19 +8526,19 @@
         <v>82880</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69156</v>
+        <v>69153</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>100379</v>
+        <v>99434</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2464412097895368</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2056324396626541</v>
+        <v>0.2056244038815709</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2984716703017619</v>
+        <v>0.2956625940658791</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>178</v>
@@ -8547,19 +8547,19 @@
         <v>169405</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>148676</v>
+        <v>146009</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>194628</v>
+        <v>191320</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2586840946510344</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2270298059708554</v>
+        <v>0.2229569400520978</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2971995844283676</v>
+        <v>0.2921472282211584</v>
       </c>
     </row>
     <row r="18">
@@ -8651,19 +8651,19 @@
         <v>90466</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>73266</v>
+        <v>75414</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>106772</v>
+        <v>108432</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2445269780948753</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1980346493233696</v>
+        <v>0.203840979331562</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2886006564229221</v>
+        <v>0.2930880473106412</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -8672,19 +8672,19 @@
         <v>105681</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>86802</v>
+        <v>87732</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>125543</v>
+        <v>125279</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2728774302284731</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2241319215717951</v>
+        <v>0.2265311842407705</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3241630374603728</v>
+        <v>0.32348194306251</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>185</v>
@@ -8693,19 +8693,19 @@
         <v>196147</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>173014</v>
+        <v>172325</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>220656</v>
+        <v>224172</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2590264058797042</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2284775655501614</v>
+        <v>0.2275678478875184</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2913924285261622</v>
+        <v>0.2960356710903537</v>
       </c>
     </row>
     <row r="20">
@@ -8722,19 +8722,19 @@
         <v>25697</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17105</v>
+        <v>16606</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>38096</v>
+        <v>37491</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06945851530138931</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04623490543381305</v>
+        <v>0.04488536170499578</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1029731109089931</v>
+        <v>0.1013361155373345</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -8743,19 +8743,19 @@
         <v>24199</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15631</v>
+        <v>15671</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36645</v>
+        <v>36170</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06248314569535085</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04036173149662763</v>
+        <v>0.04046286154806751</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09462128928134186</v>
+        <v>0.09339420798605358</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -8764,19 +8764,19 @@
         <v>49896</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36616</v>
+        <v>37323</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>65436</v>
+        <v>64916</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0658910636290618</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04835415557207295</v>
+        <v>0.04928782855142577</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08641247533791301</v>
+        <v>0.085725736334174</v>
       </c>
     </row>
     <row r="21">
@@ -8793,19 +8793,19 @@
         <v>134720</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>116506</v>
+        <v>115569</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>154793</v>
+        <v>152235</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3641437723462356</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3149107302166026</v>
+        <v>0.3123793390363199</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.41840125649084</v>
+        <v>0.4114862912340094</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>127</v>
@@ -8814,19 +8814,19 @@
         <v>138405</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>119368</v>
+        <v>119580</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>159705</v>
+        <v>158271</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3573745391788251</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3082189528663796</v>
+        <v>0.3087654733792519</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.412371592218512</v>
+        <v>0.4086709703446431</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>251</v>
@@ -8835,19 +8835,19 @@
         <v>273125</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>247265</v>
+        <v>245388</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>301117</v>
+        <v>301819</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3606817461673578</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3265309453871378</v>
+        <v>0.3240533730620861</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3976470816621531</v>
+        <v>0.3985744026007439</v>
       </c>
     </row>
     <row r="22">
@@ -8864,19 +8864,19 @@
         <v>119081</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>101623</v>
+        <v>102713</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137742</v>
+        <v>139376</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3218707342574997</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2746827154847934</v>
+        <v>0.2776284780569765</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3723125708744611</v>
+        <v>0.3767288790664046</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>115</v>
@@ -8885,19 +8885,19 @@
         <v>118998</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>99100</v>
+        <v>99821</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>137326</v>
+        <v>138236</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.307264884897351</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2558861031432536</v>
+        <v>0.257746706110242</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3545882223748317</v>
+        <v>0.3569375797917845</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>230</v>
@@ -8906,19 +8906,19 @@
         <v>238079</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>215580</v>
+        <v>214140</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>265064</v>
+        <v>266387</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3144007843238762</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2846888363228031</v>
+        <v>0.2827880380131511</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3500359346928409</v>
+        <v>0.3517831870498338</v>
       </c>
     </row>
     <row r="23">
@@ -9010,19 +9010,19 @@
         <v>57491</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>45605</v>
+        <v>44290</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>72335</v>
+        <v>70993</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2721826483501139</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.215909630764349</v>
+        <v>0.209684386525147</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3424600640879498</v>
+        <v>0.3361072248042778</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -9031,19 +9031,19 @@
         <v>65003</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50926</v>
+        <v>52006</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>78217</v>
+        <v>79697</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2973774558290271</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.23297940360154</v>
+        <v>0.2379185027706799</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3578315429587729</v>
+        <v>0.3646024506253394</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>123</v>
@@ -9052,19 +9052,19 @@
         <v>122494</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>105153</v>
+        <v>106167</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>141895</v>
+        <v>141979</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2849959449958348</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.244650178087684</v>
+        <v>0.2470112965358312</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3301346295268488</v>
+        <v>0.3303301731092597</v>
       </c>
     </row>
     <row r="25">
@@ -9128,19 +9128,19 @@
         <v>97385</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>82969</v>
+        <v>82258</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>111842</v>
+        <v>111774</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4610586713227908</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3928048967651959</v>
+        <v>0.3894410447932319</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5295032458252242</v>
+        <v>0.5291803349290183</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>94</v>
@@ -9149,19 +9149,19 @@
         <v>91707</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78980</v>
+        <v>77303</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>106161</v>
+        <v>106369</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4195424796082889</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.361320670563454</v>
+        <v>0.3536476008475222</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4856686341654838</v>
+        <v>0.4866212223008557</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>189</v>
@@ -9170,19 +9170,19 @@
         <v>189092</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>171024</v>
+        <v>169829</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>211425</v>
+        <v>210579</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4399448255240579</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3979069812694557</v>
+        <v>0.3951287431644112</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4919057870302841</v>
+        <v>0.4899363135802322</v>
       </c>
     </row>
     <row r="27">
@@ -9199,19 +9199,19 @@
         <v>56345</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>44615</v>
+        <v>44415</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>70881</v>
+        <v>70227</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2667586803270953</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2112260639303235</v>
+        <v>0.2102763706927382</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.335579490969499</v>
+        <v>0.3324792272286982</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>65</v>
@@ -9220,19 +9220,19 @@
         <v>61878</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>49473</v>
+        <v>49475</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>76275</v>
+        <v>75813</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2830800645626841</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2263318096098183</v>
+        <v>0.2263406093675167</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.348945271865188</v>
+        <v>0.3468316780591261</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>123</v>
@@ -9241,19 +9241,19 @@
         <v>118223</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>101801</v>
+        <v>101147</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>137658</v>
+        <v>138777</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2750592294801072</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2368532104250392</v>
+        <v>0.2353303551694744</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3202784460637191</v>
+        <v>0.3228821094176805</v>
       </c>
     </row>
     <row r="28">
@@ -9345,19 +9345,19 @@
         <v>44556</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>33267</v>
+        <v>33468</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>57345</v>
+        <v>57999</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1693338995867751</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.126432004825205</v>
+        <v>0.127195586961192</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2179407932142658</v>
+        <v>0.2204247741435598</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>48</v>
@@ -9366,19 +9366,19 @@
         <v>49958</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>36418</v>
+        <v>38121</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>63517</v>
+        <v>63627</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1829188619336586</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1333433065060056</v>
+        <v>0.1395768213467133</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2325633992014453</v>
+        <v>0.2329668748501787</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>93</v>
@@ -9387,19 +9387,19 @@
         <v>94514</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>76723</v>
+        <v>77713</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>112569</v>
+        <v>112794</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1762529485910209</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1430758643113782</v>
+        <v>0.14492186876582</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2099236574348199</v>
+        <v>0.2103429453001392</v>
       </c>
     </row>
     <row r="30">
@@ -9416,19 +9416,19 @@
         <v>23167</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15132</v>
+        <v>14789</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>33550</v>
+        <v>33639</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08804761602991745</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05751046326450177</v>
+        <v>0.0562056182002748</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1275066403286345</v>
+        <v>0.1278435427597042</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -9437,19 +9437,19 @@
         <v>23981</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16144</v>
+        <v>15530</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34128</v>
+        <v>34328</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08780488631092058</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05911026456332431</v>
+        <v>0.05686176821681523</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1249580666887899</v>
+        <v>0.1256916814693723</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>48</v>
@@ -9458,19 +9458,19 @@
         <v>47148</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>34710</v>
+        <v>36157</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>61621</v>
+        <v>60484</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08792398971593569</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06472866554453283</v>
+        <v>0.06742634346733987</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1149141455881122</v>
+        <v>0.1127937436231636</v>
       </c>
     </row>
     <row r="31">
@@ -9487,19 +9487,19 @@
         <v>98726</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>83976</v>
+        <v>83936</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>114929</v>
+        <v>113862</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.375210145206707</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3191506144953453</v>
+        <v>0.3190002720711384</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4367879860016253</v>
+        <v>0.4327323718373297</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>95</v>
@@ -9508,19 +9508,19 @@
         <v>101081</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>84105</v>
+        <v>85044</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>117272</v>
+        <v>117977</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3701051815900746</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3079478661221619</v>
+        <v>0.3113850315504804</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4293864569190141</v>
+        <v>0.4319689159341218</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>191</v>
@@ -9529,19 +9529,19 @@
         <v>199808</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>178704</v>
+        <v>178375</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>224024</v>
+        <v>224287</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3726101016786898</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3332544025755599</v>
+        <v>0.3326412526957643</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4177688696218092</v>
+        <v>0.4182609459910755</v>
       </c>
     </row>
     <row r="32">
@@ -9558,19 +9558,19 @@
         <v>96674</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>81031</v>
+        <v>80061</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>111385</v>
+        <v>111898</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3674083391766005</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3079602363070547</v>
+        <v>0.3042723759032195</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4233203183845367</v>
+        <v>0.4252693619345278</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>96</v>
@@ -9579,19 +9579,19 @@
         <v>98095</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>83081</v>
+        <v>81431</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>113694</v>
+        <v>113551</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3591710701653462</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3041983131731882</v>
+        <v>0.2981568715725293</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4162854194752577</v>
+        <v>0.4157623753080511</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>190</v>
@@ -9600,19 +9600,19 @@
         <v>194769</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>173471</v>
+        <v>173210</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>217066</v>
+        <v>218354</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3632129600143535</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3234968391913147</v>
+        <v>0.3230101118362117</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4047940094139837</v>
+        <v>0.40719649480579</v>
       </c>
     </row>
     <row r="33">
@@ -9704,19 +9704,19 @@
         <v>223312</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>198305</v>
+        <v>197519</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>250319</v>
+        <v>247575</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3401255482007908</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3020377685214155</v>
+        <v>0.300839875973523</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3812600610217314</v>
+        <v>0.3770798766258868</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>213</v>
@@ -9725,19 +9725,19 @@
         <v>239984</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>217572</v>
+        <v>215671</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>269333</v>
+        <v>266808</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.347152397290107</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3147315706193343</v>
+        <v>0.3119817022129883</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3896076870684704</v>
+        <v>0.3859537817897409</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>414</v>
@@ -9746,19 +9746,19 @@
         <v>463297</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>426437</v>
+        <v>425132</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>500019</v>
+        <v>499716</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3437295185376774</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3163826577139664</v>
+        <v>0.3154144199503148</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3709748880090015</v>
+        <v>0.3707502317411145</v>
       </c>
     </row>
     <row r="35">
@@ -9775,19 +9775,19 @@
         <v>231940</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>206638</v>
+        <v>205143</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>256864</v>
+        <v>256878</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3532661273130923</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3147295349811457</v>
+        <v>0.3124525014275328</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3912280611506411</v>
+        <v>0.3912493879462451</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>239</v>
@@ -9796,19 +9796,19 @@
         <v>250376</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>224303</v>
+        <v>224834</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>274870</v>
+        <v>275384</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3621844659100821</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3244682522168941</v>
+        <v>0.3252367879177919</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3976162466635852</v>
+        <v>0.3983596531082313</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>440</v>
@@ -9817,19 +9817,19 @@
         <v>482316</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>441514</v>
+        <v>445259</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>518918</v>
+        <v>518611</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3578402155494159</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3275687542721685</v>
+        <v>0.3303472651724584</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3849961361228154</v>
+        <v>0.3847687055772996</v>
       </c>
     </row>
     <row r="36">
@@ -9846,19 +9846,19 @@
         <v>121276</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>100615</v>
+        <v>102026</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>142192</v>
+        <v>144092</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1847141542869431</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1532462071796167</v>
+        <v>0.1553949369148419</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2165711618980075</v>
+        <v>0.2194664072881345</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>114</v>
@@ -9867,19 +9867,19 @@
         <v>119677</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>99181</v>
+        <v>99378</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>141924</v>
+        <v>140066</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1731195897339587</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1434722254921223</v>
+        <v>0.1437562423465596</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2053022757718362</v>
+        <v>0.2026142782200691</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>220</v>
@@ -9888,19 +9888,19 @@
         <v>240952</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>214099</v>
+        <v>213576</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>271058</v>
+        <v>269473</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1787674680571782</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.158844716839149</v>
+        <v>0.1584567243359609</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2011040443787599</v>
+        <v>0.1999278551284773</v>
       </c>
     </row>
     <row r="37">
@@ -9917,19 +9917,19 @@
         <v>80031</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>63899</v>
+        <v>62854</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>98613</v>
+        <v>99354</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1218941701991737</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09732448845480544</v>
+        <v>0.0957327598590596</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1501974431568741</v>
+        <v>0.1513248004626188</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>80</v>
@@ -9938,19 +9938,19 @@
         <v>81257</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>65887</v>
+        <v>65443</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>100717</v>
+        <v>98517</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1175435470658522</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09530953196997941</v>
+        <v>0.09466785383094908</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.145693275226308</v>
+        <v>0.142511150389842</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>152</v>
@@ -9959,19 +9959,19 @@
         <v>161288</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>138384</v>
+        <v>138389</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>186332</v>
+        <v>188664</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1196627978557285</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1026699997947945</v>
+        <v>0.1026736765494732</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1382435541547564</v>
+        <v>0.139973654124101</v>
       </c>
     </row>
     <row r="38">
@@ -10063,19 +10063,19 @@
         <v>270253</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>245623</v>
+        <v>243586</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>297487</v>
+        <v>299427</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3471085774071702</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.315474963745332</v>
+        <v>0.3128577359643084</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3820876586820288</v>
+        <v>0.384578909163509</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>274</v>
@@ -10084,19 +10084,19 @@
         <v>304310</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>276236</v>
+        <v>274301</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>332979</v>
+        <v>331276</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3683401764548465</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3343581116495943</v>
+        <v>0.3320160122098566</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.4030407402817265</v>
+        <v>0.4009798054039743</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>547</v>
@@ -10105,19 +10105,19 @@
         <v>574563</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>535770</v>
+        <v>535629</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>612892</v>
+        <v>613797</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.3580391563422096</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3338652216761434</v>
+        <v>0.3337772215540877</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.381923626097906</v>
+        <v>0.382487775052064</v>
       </c>
     </row>
     <row r="40">
@@ -10134,19 +10134,19 @@
         <v>104464</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>87998</v>
+        <v>87097</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>124394</v>
+        <v>123728</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1341723471986889</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1130231308296206</v>
+        <v>0.1118663416689527</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1597700267567315</v>
+        <v>0.158913725361706</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>105</v>
@@ -10155,19 +10155,19 @@
         <v>108516</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>91117</v>
+        <v>91223</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>129266</v>
+        <v>129385</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1313490072917829</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1102886191305341</v>
+        <v>0.1104171164165806</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1564645338566454</v>
+        <v>0.156608492104502</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>207</v>
@@ -10176,19 +10176,19 @@
         <v>212981</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>186528</v>
+        <v>184651</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>241083</v>
+        <v>240616</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1327188184445153</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.116234762831124</v>
+        <v>0.1150651126809947</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1502308542320716</v>
+        <v>0.1499397553442888</v>
       </c>
     </row>
     <row r="41">
@@ -10205,19 +10205,19 @@
         <v>278934</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>250761</v>
+        <v>252627</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>305740</v>
+        <v>304936</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.358258610025055</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3220740205225575</v>
+        <v>0.3244704764536829</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3926882204601643</v>
+        <v>0.3916549952557873</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>260</v>
@@ -10226,19 +10226,19 @@
         <v>288500</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>262665</v>
+        <v>258466</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>318478</v>
+        <v>317111</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3492035085869986</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.317931779888571</v>
+        <v>0.3128492128904117</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3854880848843562</v>
+        <v>0.3838340950504042</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>518</v>
@@ -10247,19 +10247,19 @@
         <v>567434</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>527285</v>
+        <v>527252</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>607778</v>
+        <v>604636</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3535968084899372</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3285777974671711</v>
+        <v>0.3285573508218823</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3787367602256113</v>
+        <v>0.3767788793237083</v>
       </c>
     </row>
     <row r="42">
@@ -10276,19 +10276,19 @@
         <v>124932</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>104236</v>
+        <v>104916</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>144983</v>
+        <v>150594</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1604604653690858</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1338786973457618</v>
+        <v>0.1347529374706934</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1862134928422373</v>
+        <v>0.193420122645611</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>116</v>
@@ -10297,19 +10297,19 @@
         <v>124840</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>103454</v>
+        <v>104374</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>147315</v>
+        <v>148690</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1511073076663719</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1252212135152505</v>
+        <v>0.1263350320285492</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1783110399494128</v>
+        <v>0.1799757692618777</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>233</v>
@@ -10318,19 +10318,19 @@
         <v>249772</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>223230</v>
+        <v>220681</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>281238</v>
+        <v>279138</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1556452167233379</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1391056119721174</v>
+        <v>0.1375176781699687</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1752534803183262</v>
+        <v>0.1739446306264064</v>
       </c>
     </row>
     <row r="43">
@@ -10422,19 +10422,19 @@
         <v>937567</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>884740</v>
+        <v>887134</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>989277</v>
+        <v>997224</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2762139707368455</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2606507978364224</v>
+        <v>0.2613560315055414</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2914482369330897</v>
+        <v>0.2937894358453788</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>959</v>
@@ -10443,19 +10443,19 @@
         <v>1043779</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>991782</v>
+        <v>981569</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1099376</v>
+        <v>1101118</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2944749981084367</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2798055059501932</v>
+        <v>0.276924193190839</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3101601810801073</v>
+        <v>0.3106515602131268</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1891</v>
@@ -10464,19 +10464,19 @@
         <v>1981346</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1902609</v>
+        <v>1901584</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2055560</v>
+        <v>2061542</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2855421135112134</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2741948767828971</v>
+        <v>0.274047261455841</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2962374767819007</v>
+        <v>0.2970995906858316</v>
       </c>
     </row>
     <row r="45">
@@ -10493,19 +10493,19 @@
         <v>759552</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>711833</v>
+        <v>711792</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>815292</v>
+        <v>810913</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2237695848496856</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2097112259898415</v>
+        <v>0.2096991349189299</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2401908250700208</v>
+        <v>0.2389007271368104</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>736</v>
@@ -10514,19 +10514,19 @@
         <v>785011</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>736161</v>
+        <v>735357</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>840582</v>
+        <v>836644</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.2214703628507727</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2076886929083176</v>
+        <v>0.2074618870548347</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2371482416550201</v>
+        <v>0.236037328069038</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1432</v>
@@ -10535,19 +10535,19 @@
         <v>1544563</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1473772</v>
+        <v>1475289</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1623984</v>
+        <v>1622278</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2225950906309653</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2123929782547193</v>
+        <v>0.2126116644725675</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2340407846780487</v>
+        <v>0.2337950267177661</v>
       </c>
     </row>
     <row r="46">
@@ -10564,19 +10564,19 @@
         <v>1022431</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>975120</v>
+        <v>971591</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1081295</v>
+        <v>1078790</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3012155162780333</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2872773590692447</v>
+        <v>0.2862378369371713</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3185573174679734</v>
+        <v>0.3178192312123853</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>977</v>
@@ -10585,19 +10585,19 @@
         <v>1042913</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>985259</v>
+        <v>992473</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1099573</v>
+        <v>1102682</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2942306795900514</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2779651726132907</v>
+        <v>0.2800003518054377</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3102159499915291</v>
+        <v>0.3110929581599029</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1928</v>
@@ -10606,19 +10606,19 @@
         <v>2065344</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1987246</v>
+        <v>1991669</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2144803</v>
+        <v>2135593</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2976475048756463</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2863923961041316</v>
+        <v>0.2870297862114905</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.309098842801307</v>
+        <v>0.3077715215064142</v>
       </c>
     </row>
     <row r="47">
@@ -10635,19 +10635,19 @@
         <v>674800</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>626023</v>
+        <v>629423</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>720697</v>
+        <v>722194</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1988009281354357</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1844309147714919</v>
+        <v>0.1854325278768604</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2123225898330379</v>
+        <v>0.2127634689047148</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>666</v>
@@ -10656,19 +10656,19 @@
         <v>672839</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>629329</v>
+        <v>630430</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>717041</v>
+        <v>719517</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1898239594507392</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1775488737666004</v>
+        <v>0.1778594615523857</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2022943665249652</v>
+        <v>0.2029930389803683</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1318</v>
@@ -10677,19 +10677,19 @@
         <v>1347639</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1282800</v>
+        <v>1276831</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1417724</v>
+        <v>1412120</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.194215290982175</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1848709504122173</v>
+        <v>0.1840107531081879</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2043155549333405</v>
+        <v>0.2035080334283854</v>
       </c>
     </row>
     <row r="48">
@@ -11025,19 +11025,19 @@
         <v>89666</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73476</v>
+        <v>74585</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>107080</v>
+        <v>106049</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2812228145675401</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2304442601847279</v>
+        <v>0.2339227084954455</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.335836380779455</v>
+        <v>0.3326022686760252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>145</v>
@@ -11046,19 +11046,19 @@
         <v>81783</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69378</v>
+        <v>69909</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94370</v>
+        <v>94839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2587571390023596</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2195092174078996</v>
+        <v>0.2211895044745152</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2985824946875115</v>
+        <v>0.3000653133426257</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>240</v>
@@ -11067,19 +11067,19 @@
         <v>171450</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>151469</v>
+        <v>151602</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192683</v>
+        <v>193559</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2700392429629629</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2385698844603867</v>
+        <v>0.2387781192020005</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3034831635609931</v>
+        <v>0.3048619957905337</v>
       </c>
     </row>
     <row r="5">
@@ -11096,19 +11096,19 @@
         <v>63375</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49699</v>
+        <v>48855</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>78743</v>
+        <v>79996</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1987648795561021</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1558706151197882</v>
+        <v>0.1532258625096941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2469624046803055</v>
+        <v>0.2508917813479421</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>136</v>
@@ -11117,19 +11117,19 @@
         <v>86035</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72583</v>
+        <v>71928</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100410</v>
+        <v>101161</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2722103532615732</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.229647296677206</v>
+        <v>0.227576699491376</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3176916569406587</v>
+        <v>0.3200681703714274</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>202</v>
@@ -11138,19 +11138,19 @@
         <v>149410</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>129708</v>
+        <v>131401</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>169990</v>
+        <v>170485</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2353265539127945</v>
+        <v>0.2353265539127944</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2042940965557721</v>
+        <v>0.2069619284491533</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.267740229323996</v>
+        <v>0.2685194477421424</v>
       </c>
     </row>
     <row r="6">
@@ -11167,19 +11167,19 @@
         <v>90604</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>73543</v>
+        <v>72851</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>108643</v>
+        <v>107170</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2841638231302967</v>
+        <v>0.2841638231302968</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2306530314705629</v>
+        <v>0.2284854746518381</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.340740388744138</v>
+        <v>0.3361186804599373</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>128</v>
@@ -11188,19 +11188,19 @@
         <v>80809</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>67846</v>
+        <v>67826</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>94623</v>
+        <v>94919</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2556750614379024</v>
+        <v>0.2556750614379025</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2146600125158837</v>
+        <v>0.214597906840257</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2993813203911847</v>
+        <v>0.3003187939770573</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>215</v>
@@ -11209,19 +11209,19 @@
         <v>171413</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>150567</v>
+        <v>150948</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>194460</v>
+        <v>193170</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2699819168088846</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2371484206862981</v>
+        <v>0.2377480063202232</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3062821255688187</v>
+        <v>0.3042495547374254</v>
       </c>
     </row>
     <row r="7">
@@ -11238,19 +11238,19 @@
         <v>75199</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60156</v>
+        <v>61343</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91304</v>
+        <v>91788</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2358484827460611</v>
+        <v>0.2358484827460612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.188667550823809</v>
+        <v>0.1923926574254563</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2863575656891504</v>
+        <v>0.287875891510855</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -11259,19 +11259,19 @@
         <v>67434</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57142</v>
+        <v>55311</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80118</v>
+        <v>78465</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2133574462981648</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1807935102577994</v>
+        <v>0.1750020326353995</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.253489758640725</v>
+        <v>0.2482575668499129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>212</v>
@@ -11280,19 +11280,19 @@
         <v>142633</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>123292</v>
+        <v>125890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>161153</v>
+        <v>162828</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2246522863153582</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1941893420107246</v>
+        <v>0.1982808373309307</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2538223757603539</v>
+        <v>0.2564593331186601</v>
       </c>
     </row>
     <row r="8">
@@ -11384,19 +11384,19 @@
         <v>48404</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>34617</v>
+        <v>35299</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>66372</v>
+        <v>66725</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09121667986757948</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06523541856915228</v>
+        <v>0.06652059658993452</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1250765693846002</v>
+        <v>0.1257424923793562</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>77</v>
@@ -11405,19 +11405,19 @@
         <v>54129</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>42313</v>
+        <v>43368</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>66765</v>
+        <v>68131</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.09904812547137409</v>
+        <v>0.09904812547137408</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07742645434405242</v>
+        <v>0.07935608281681504</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1221691508427109</v>
+        <v>0.1246695674026449</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>118</v>
@@ -11426,19 +11426,19 @@
         <v>102533</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>84451</v>
+        <v>85121</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>124810</v>
+        <v>123825</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0951900123701134</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07840269567556986</v>
+        <v>0.07902497987204517</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.115871639468091</v>
+        <v>0.1149571190328645</v>
       </c>
     </row>
     <row r="10">
@@ -11455,19 +11455,19 @@
         <v>310165</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>280592</v>
+        <v>282033</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>339027</v>
+        <v>340127</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5845031909871765</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5287731038691823</v>
+        <v>0.5314884494275166</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6388937520849556</v>
+        <v>0.6409674982183461</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>393</v>
@@ -11476,19 +11476,19 @@
         <v>311025</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>290543</v>
+        <v>291568</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>334175</v>
+        <v>331572</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5691271433090495</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5316496848608995</v>
+        <v>0.5335244359326354</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6114886330409474</v>
+        <v>0.6067254548582045</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>622</v>
@@ -11497,19 +11497,19 @@
         <v>621189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>585289</v>
+        <v>584271</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>655723</v>
+        <v>659796</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5767020578259616</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5433727779205785</v>
+        <v>0.5424275346675006</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6087627192634488</v>
+        <v>0.6125440666557492</v>
       </c>
     </row>
     <row r="11">
@@ -11526,19 +11526,19 @@
         <v>114323</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91056</v>
+        <v>90711</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>140579</v>
+        <v>140503</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2154413463220719</v>
+        <v>0.215441346322072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.171594365776764</v>
+        <v>0.1709440855158427</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2649198127445112</v>
+        <v>0.2647773099165627</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>170</v>
@@ -11547,19 +11547,19 @@
         <v>125176</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>107256</v>
+        <v>109658</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>143259</v>
+        <v>144563</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2290522795282733</v>
+        <v>0.2290522795282734</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1962617562665739</v>
+        <v>0.2006581103145565</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2621413955536578</v>
+        <v>0.2645285902387911</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>243</v>
@@ -11568,19 +11568,19 @@
         <v>239499</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>210994</v>
+        <v>209678</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>270593</v>
+        <v>272492</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2223469377076285</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1958833621768592</v>
+        <v>0.1946617353509849</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2512137432899882</v>
+        <v>0.2529770171125435</v>
       </c>
     </row>
     <row r="12">
@@ -11597,19 +11597,19 @@
         <v>57755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39864</v>
+        <v>41608</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>79327</v>
+        <v>81774</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.108838782823172</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07512311511194944</v>
+        <v>0.07841048385271554</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1494909590827488</v>
+        <v>0.1541031039208346</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>77</v>
@@ -11618,19 +11618,19 @@
         <v>56165</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43809</v>
+        <v>43998</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>71338</v>
+        <v>70175</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1027724516913031</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08016454834743908</v>
+        <v>0.08051045812711866</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1305370997365171</v>
+        <v>0.1284088433253819</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>116</v>
@@ -11639,19 +11639,19 @@
         <v>113920</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>91164</v>
+        <v>92463</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>140215</v>
+        <v>138456</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1057609920962966</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0846354692398615</v>
+        <v>0.08584101798801511</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1301733718653322</v>
+        <v>0.1285399247204698</v>
       </c>
     </row>
     <row r="13">
@@ -11743,19 +11743,19 @@
         <v>105810</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>90346</v>
+        <v>89741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>121679</v>
+        <v>123689</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3348486691004267</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2859104474049184</v>
+        <v>0.283995308975788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3850697860073198</v>
+        <v>0.3914285125660496</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>200</v>
@@ -11764,19 +11764,19 @@
         <v>145940</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>129599</v>
+        <v>130670</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>161001</v>
+        <v>161575</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4095069521502682</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3636537193648131</v>
+        <v>0.3666575170720616</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4517670009021837</v>
+        <v>0.4533768018989514</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>318</v>
@@ -11785,19 +11785,19 @@
         <v>251751</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>230768</v>
+        <v>228750</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>275775</v>
+        <v>275884</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3744200810825644</v>
+        <v>0.3744200810825643</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3432127415490983</v>
+        <v>0.3402114108929066</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4101502157551386</v>
+        <v>0.4103126264176117</v>
       </c>
     </row>
     <row r="15">
@@ -11861,19 +11861,19 @@
         <v>106058</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>88479</v>
+        <v>90932</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>122379</v>
+        <v>123490</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.335634559609805</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2800020530377325</v>
+        <v>0.2877655798698995</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3872841338919832</v>
+        <v>0.390799702784965</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>151</v>
@@ -11882,19 +11882,19 @@
         <v>103692</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>89903</v>
+        <v>89396</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>118037</v>
+        <v>118762</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2909587780730493</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2522658852171991</v>
+        <v>0.2508430555995943</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3312097042913127</v>
+        <v>0.3332456863077575</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>267</v>
@@ -11903,19 +11903,19 @@
         <v>209751</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>187178</v>
+        <v>188186</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>231104</v>
+        <v>231318</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3119548862420863</v>
+        <v>0.3119548862420862</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2783830216781643</v>
+        <v>0.2798825333917427</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3437123684462717</v>
+        <v>0.344030874842647</v>
       </c>
     </row>
     <row r="17">
@@ -11932,19 +11932,19 @@
         <v>104125</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>90095</v>
+        <v>86940</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>121662</v>
+        <v>120921</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3295167712897683</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2851167582061765</v>
+        <v>0.2751341366731967</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3850134996764194</v>
+        <v>0.3826702218682162</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>185</v>
@@ -11953,19 +11953,19 @@
         <v>106748</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>93158</v>
+        <v>92508</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>120459</v>
+        <v>120219</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2995342697766826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2614008335551374</v>
+        <v>0.2595757614611685</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3380061821860754</v>
+        <v>0.3373339314284891</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>311</v>
@@ -11974,19 +11974,19 @@
         <v>210874</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>190324</v>
+        <v>190010</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>235206</v>
+        <v>233804</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3136250326753495</v>
+        <v>0.3136250326753494</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2830623469421982</v>
+        <v>0.2825955272196723</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3498135202327398</v>
+        <v>0.3477289381596576</v>
       </c>
     </row>
     <row r="18">
@@ -12078,19 +12078,19 @@
         <v>121474</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>100636</v>
+        <v>100955</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>146650</v>
+        <v>146732</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3255399638157578</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2696973935679618</v>
+        <v>0.2705524385961338</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3930117548716059</v>
+        <v>0.3932314463535979</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>203</v>
@@ -12099,19 +12099,19 @@
         <v>127783</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>112003</v>
+        <v>112333</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>145297</v>
+        <v>145732</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.302831893911478</v>
+        <v>0.3028318939114781</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2654335248766711</v>
+        <v>0.266217205063393</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3443377899719967</v>
+        <v>0.3453674638704073</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>332</v>
@@ -12120,19 +12120,19 @@
         <v>249257</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>222675</v>
+        <v>221591</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>275687</v>
+        <v>278058</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3134888391851094</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2800567295612996</v>
+        <v>0.2786930186648388</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3467297973525851</v>
+        <v>0.3497115323167334</v>
       </c>
     </row>
     <row r="20">
@@ -12149,19 +12149,19 @@
         <v>22477</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11821</v>
+        <v>12044</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39217</v>
+        <v>38845</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06023561218642094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03168070043180907</v>
+        <v>0.03227831486575367</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1050992590916672</v>
+        <v>0.1041006321169072</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -12170,19 +12170,19 @@
         <v>23176</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15255</v>
+        <v>16134</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37157</v>
+        <v>36413</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.0549252903715016</v>
+        <v>0.05492529037150162</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03615306680109884</v>
+        <v>0.03823621179965628</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08805798843041844</v>
+        <v>0.08629526911225796</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>47</v>
@@ -12191,19 +12191,19 @@
         <v>45653</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30734</v>
+        <v>31451</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>68049</v>
+        <v>66852</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05741743563992446</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03865421523137553</v>
+        <v>0.0395552495062113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08558473565554935</v>
+        <v>0.0840786708584724</v>
       </c>
     </row>
     <row r="21">
@@ -12220,19 +12220,19 @@
         <v>115741</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>94750</v>
+        <v>89302</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>142062</v>
+        <v>140401</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3101761934732263</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2539228509415397</v>
+        <v>0.2393214096576049</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3807153005839349</v>
+        <v>0.3762633216150356</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>155</v>
@@ -12241,19 +12241,19 @@
         <v>130789</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>111709</v>
+        <v>112086</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>149473</v>
+        <v>152542</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.3099545690061247</v>
+        <v>0.3099545690061248</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2647380786302934</v>
+        <v>0.2656315551738335</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3542345275420168</v>
+        <v>0.3615082611182672</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>226</v>
@@ -12262,19 +12262,19 @@
         <v>246530</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>215949</v>
+        <v>217458</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>278805</v>
+        <v>278983</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.3100585778376615</v>
+        <v>0.3100585778376614</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2715976446083893</v>
+        <v>0.2734949818837406</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3506503608885292</v>
+        <v>0.350874911946983</v>
       </c>
     </row>
     <row r="22">
@@ -12291,19 +12291,19 @@
         <v>113454</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>91389</v>
+        <v>91638</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>141064</v>
+        <v>142443</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3040482305245951</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2449159279628595</v>
+        <v>0.2455814848786918</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3780399753251599</v>
+        <v>0.3817373810849131</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>208</v>
@@ -12312,19 +12312,19 @@
         <v>140213</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>121539</v>
+        <v>122820</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>159763</v>
+        <v>158301</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3322882467108956</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2880347646689801</v>
+        <v>0.2910687558453317</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3786211218791846</v>
+        <v>0.375154355586131</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>286</v>
@@ -12333,19 +12333,19 @@
         <v>253667</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>219788</v>
+        <v>226323</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>284368</v>
+        <v>286024</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3190351473373045</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2764254816463362</v>
+        <v>0.2846445718644884</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3576472396869592</v>
+        <v>0.3597299968546914</v>
       </c>
     </row>
     <row r="23">
@@ -12437,19 +12437,19 @@
         <v>65249</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53616</v>
+        <v>54342</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>78388</v>
+        <v>77646</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3172604904926027</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2606944436129742</v>
+        <v>0.2642276401351187</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3811439510371196</v>
+        <v>0.3775342882931889</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>124</v>
@@ -12458,19 +12458,19 @@
         <v>62686</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>52326</v>
+        <v>53110</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74245</v>
+        <v>72597</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2738381862581795</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.228578504278935</v>
+        <v>0.232004449726394</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3243319413751911</v>
+        <v>0.3171293085308542</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>210</v>
@@ -12479,19 +12479,19 @@
         <v>127936</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>112743</v>
+        <v>113490</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>143550</v>
+        <v>143468</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2943876559771683</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2594288742245644</v>
+        <v>0.2611467256365815</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3303168144079411</v>
+        <v>0.3301298301341347</v>
       </c>
     </row>
     <row r="25">
@@ -12555,19 +12555,19 @@
         <v>85437</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>74148</v>
+        <v>74536</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>98454</v>
+        <v>99125</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4154191977688936</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3605274237425026</v>
+        <v>0.3624153729126854</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4787128295430614</v>
+        <v>0.4819725979136105</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>201</v>
@@ -12576,19 +12576,19 @@
         <v>98557</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>88532</v>
+        <v>87793</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>109768</v>
+        <v>110229</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4305344915231701</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3867405554857544</v>
+        <v>0.3835142932570852</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4795061434573802</v>
+        <v>0.4815201791530827</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>311</v>
@@ -12597,19 +12597,19 @@
         <v>183994</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>167097</v>
+        <v>168602</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>200452</v>
+        <v>201513</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4233812260119657</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3844994029699313</v>
+        <v>0.3879632837635195</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4612527571861237</v>
+        <v>0.4636928794644253</v>
       </c>
     </row>
     <row r="27">
@@ -12626,19 +12626,19 @@
         <v>54978</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>45056</v>
+        <v>44730</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>66400</v>
+        <v>66398</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2673203117385037</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2190762525988056</v>
+        <v>0.2174889949567428</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3228565181891231</v>
+        <v>0.322845324629513</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>170</v>
@@ -12647,19 +12647,19 @@
         <v>67674</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>58923</v>
+        <v>58714</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>77737</v>
+        <v>77026</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2956273222186504</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2573958497244256</v>
+        <v>0.256483365995874</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3395832345667029</v>
+        <v>0.3364790527483295</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>253</v>
@@ -12668,19 +12668,19 @@
         <v>122653</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>108766</v>
+        <v>109246</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>137872</v>
+        <v>135721</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.282231118010866</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2502772494158352</v>
+        <v>0.2513821618728733</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3172520177396855</v>
+        <v>0.3123024587077065</v>
       </c>
     </row>
     <row r="28">
@@ -12772,19 +12772,19 @@
         <v>40504</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31063</v>
+        <v>30917</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52554</v>
+        <v>51327</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1496242476839687</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1147473110780522</v>
+        <v>0.1142097422746158</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1941344306730456</v>
+        <v>0.1896031853554666</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>75</v>
@@ -12793,19 +12793,19 @@
         <v>48442</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>38378</v>
+        <v>38424</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>58758</v>
+        <v>59941</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1836658738721031</v>
+        <v>0.183665873872103</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1455076491158922</v>
+        <v>0.1456843895453126</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2227803804660317</v>
+        <v>0.2272655864504806</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>130</v>
@@ -12814,19 +12814,19 @@
         <v>88946</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>74551</v>
+        <v>74767</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>104699</v>
+        <v>104375</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1664235117756486</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1394900989941615</v>
+        <v>0.139892513600698</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1958975076894175</v>
+        <v>0.19529124676788</v>
       </c>
     </row>
     <row r="30">
@@ -12843,19 +12843,19 @@
         <v>20965</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13516</v>
+        <v>14096</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>29740</v>
+        <v>31127</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07744402402162769</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04992935120625418</v>
+        <v>0.05207034874921286</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1098622943490023</v>
+        <v>0.1149826236664939</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>28</v>
@@ -12864,19 +12864,19 @@
         <v>16923</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11471</v>
+        <v>11226</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24757</v>
+        <v>23721</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.06416185408651272</v>
+        <v>0.06416185408651269</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04349264914200376</v>
+        <v>0.04256373154509042</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09386510145956536</v>
+        <v>0.08993724306667708</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>54</v>
@@ -12885,19 +12885,19 @@
         <v>37887</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>28230</v>
+        <v>28564</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>49159</v>
+        <v>49325</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07088938179574182</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05282078848394572</v>
+        <v>0.05344398922961164</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09197928586418469</v>
+        <v>0.09228997892502963</v>
       </c>
     </row>
     <row r="31">
@@ -12914,19 +12914,19 @@
         <v>97920</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>83940</v>
+        <v>84951</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>112937</v>
+        <v>113205</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3617182344965109</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3100772907029023</v>
+        <v>0.3138099967519456</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4171928050920682</v>
+        <v>0.4181830409152144</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>164</v>
@@ -12935,19 +12935,19 @@
         <v>101506</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>89495</v>
+        <v>89243</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>115114</v>
+        <v>115112</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.3848562612904082</v>
+        <v>0.3848562612904081</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3393165342029082</v>
+        <v>0.3383635096649695</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4364528834417193</v>
+        <v>0.4364417829265418</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>293</v>
@@ -12956,19 +12956,19 @@
         <v>199426</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>180378</v>
+        <v>179946</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>220232</v>
+        <v>219104</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3731366614695013</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3374973922610864</v>
+        <v>0.3366897240879564</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4120669508102051</v>
+        <v>0.4099554654619073</v>
       </c>
     </row>
     <row r="32">
@@ -12985,19 +12985,19 @@
         <v>111318</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>96856</v>
+        <v>97786</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>124856</v>
+        <v>126430</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4112134937978927</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3577881793207545</v>
+        <v>0.3612242320112061</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.461221865066938</v>
+        <v>0.4670350503732047</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>193</v>
@@ -13006,19 +13006,19 @@
         <v>96880</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>85369</v>
+        <v>85052</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>110076</v>
+        <v>109774</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.367316010750976</v>
+        <v>0.3673160107509759</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3236737301577798</v>
+        <v>0.3224718153201751</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4173487443555624</v>
+        <v>0.4162055436798032</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>354</v>
@@ -13027,19 +13027,19 @@
         <v>208198</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>189070</v>
+        <v>189614</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>229342</v>
+        <v>226242</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.3895504449591083</v>
+        <v>0.3895504449591084</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3537611709388899</v>
+        <v>0.3547783106738824</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4291118338213292</v>
+        <v>0.4233122903516431</v>
       </c>
     </row>
     <row r="33">
@@ -13131,19 +13131,19 @@
         <v>239350</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>207898</v>
+        <v>209074</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>267698</v>
+        <v>272261</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3325755014175171</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2888730613947427</v>
+        <v>0.2905073674108533</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3719647696059634</v>
+        <v>0.3783050442239399</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>349</v>
@@ -13152,19 +13152,19 @@
         <v>284420</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>261348</v>
+        <v>260411</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>311471</v>
+        <v>312854</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3683926967847438</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3385088611102002</v>
+        <v>0.3372953543892676</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4034305841071217</v>
+        <v>0.4052208175338555</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>555</v>
@@ -13173,19 +13173,19 @@
         <v>523770</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>489146</v>
+        <v>486133</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>564732</v>
+        <v>563176</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3511128051225609</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3279022713893474</v>
+        <v>0.3258821500619382</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3785719330765325</v>
+        <v>0.3775286851539638</v>
       </c>
     </row>
     <row r="35">
@@ -13202,19 +13202,19 @@
         <v>276869</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>246380</v>
+        <v>245763</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>307992</v>
+        <v>305466</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3847073648089914</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3423435606291207</v>
+        <v>0.3414865336010174</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.427952075073321</v>
+        <v>0.4244431328308284</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>337</v>
@@ -13223,19 +13223,19 @@
         <v>275663</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>249371</v>
+        <v>251043</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>302527</v>
+        <v>301605</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3570501228642564</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3229955753233049</v>
+        <v>0.3251611545469998</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3918457115106025</v>
+        <v>0.3906511232399125</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>570</v>
@@ -13244,19 +13244,19 @@
         <v>552532</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>514453</v>
+        <v>512322</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>592192</v>
+        <v>590971</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.3703932710247933</v>
+        <v>0.3703932710247934</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3448670228784109</v>
+        <v>0.3434382861435153</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3969796272728826</v>
+        <v>0.3961613452664217</v>
       </c>
     </row>
     <row r="36">
@@ -13273,19 +13273,19 @@
         <v>144816</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>120421</v>
+        <v>118734</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>169526</v>
+        <v>173171</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2012213566873993</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1673239185932176</v>
+        <v>0.1649799374500482</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.235555122568612</v>
+        <v>0.2406195748750497</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>169</v>
@@ -13294,19 +13294,19 @@
         <v>133419</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>115389</v>
+        <v>114831</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>154117</v>
+        <v>154065</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1728092029182153</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1494568462636611</v>
+        <v>0.1487341625665576</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1996181115437679</v>
+        <v>0.1995514740076485</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>279</v>
@@ -13315,19 +13315,19 @@
         <v>278235</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>248020</v>
+        <v>248775</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>313099</v>
+        <v>314041</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1865165558805864</v>
+        <v>0.1865165558805865</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1662614993117259</v>
+        <v>0.1667680287414663</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2098877906526436</v>
+        <v>0.2105193658718861</v>
       </c>
     </row>
     <row r="37">
@@ -13344,19 +13344,19 @@
         <v>58651</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>43471</v>
+        <v>44834</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>77287</v>
+        <v>76926</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.0814957770860924</v>
+        <v>0.08149577708609239</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06040239446002806</v>
+        <v>0.06229586084973688</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1073893998791284</v>
+        <v>0.1068883348328166</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>105</v>
@@ -13365,19 +13365,19 @@
         <v>78555</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>64843</v>
+        <v>64835</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>97583</v>
+        <v>93008</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1017479774327842</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08398741186203021</v>
+        <v>0.08397637063685041</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1263935092021469</v>
+        <v>0.1204672745271584</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>155</v>
@@ -13386,19 +13386,19 @@
         <v>137207</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>116301</v>
+        <v>115948</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>161530</v>
+        <v>160001</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.09197736797205931</v>
+        <v>0.09197736797205933</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07796321126595102</v>
+        <v>0.07772618989832081</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1082823283411521</v>
+        <v>0.1072575787585141</v>
       </c>
     </row>
     <row r="38">
@@ -13490,19 +13490,19 @@
         <v>279604</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>252311</v>
+        <v>251325</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>308070</v>
+        <v>310837</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3503496038421414</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3161511936195422</v>
+        <v>0.3149153329668442</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3860173432028604</v>
+        <v>0.3894850628705389</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>389</v>
@@ -13511,19 +13511,19 @@
         <v>313857</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>287268</v>
+        <v>287699</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>341754</v>
+        <v>336405</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3775350260965364</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3455523228764689</v>
+        <v>0.3460703473556515</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.411092164070492</v>
+        <v>0.4046586350516578</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>665</v>
@@ -13532,19 +13532,19 @@
         <v>593461</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>554688</v>
+        <v>556020</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>632886</v>
+        <v>633191</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.3642197708275928</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3404242868517016</v>
+        <v>0.3412416562808623</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3884155943485401</v>
+        <v>0.3886030136444459</v>
       </c>
     </row>
     <row r="40">
@@ -13561,19 +13561,19 @@
         <v>109223</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>91073</v>
+        <v>90771</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>131211</v>
+        <v>130193</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1368581282675707</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1141161056200998</v>
+        <v>0.1137374040242226</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1644094728142462</v>
+        <v>0.1631342189519153</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>120</v>
@@ -13582,19 +13582,19 @@
         <v>99437</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>83443</v>
+        <v>79663</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>118041</v>
+        <v>116573</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1196115275778094</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1003728485500135</v>
+        <v>0.09582530594068867</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.141990449599547</v>
+        <v>0.1402245558904963</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>228</v>
@@ -13603,19 +13603,19 @@
         <v>208659</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>185098</v>
+        <v>181194</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>236453</v>
+        <v>233344</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1280588082033139</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1135987010466687</v>
+        <v>0.1112026812684577</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1451162931461503</v>
+        <v>0.1432085577132679</v>
       </c>
     </row>
     <row r="41">
@@ -13632,19 +13632,19 @@
         <v>294017</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>264490</v>
+        <v>265350</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>325352</v>
+        <v>325452</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.3684094446577106</v>
+        <v>0.3684094446577105</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3314106975569348</v>
+        <v>0.3324893244081937</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.407672654538734</v>
+        <v>0.407797376349755</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>379</v>
@@ -13653,19 +13653,19 @@
         <v>297527</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>274142</v>
+        <v>271284</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>321791</v>
+        <v>321652</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3578922259672008</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.329762870620309</v>
+        <v>0.3263247535037487</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3870797797547641</v>
+        <v>0.3869126067714881</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>647</v>
@@ -13674,19 +13674,19 @@
         <v>591544</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>552997</v>
+        <v>552893</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>630052</v>
+        <v>632441</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3630434960219009</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.339385974394234</v>
+        <v>0.3393222632976217</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3866765203601156</v>
+        <v>0.3881430402422619</v>
       </c>
     </row>
     <row r="42">
@@ -13703,19 +13703,19 @@
         <v>115228</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>94554</v>
+        <v>96117</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>136874</v>
+        <v>136739</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1443828232325772</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1184781664525498</v>
+        <v>0.1204362574564816</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1715055406384844</v>
+        <v>0.1713365883687408</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>174</v>
@@ -13724,19 +13724,19 @@
         <v>120511</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>104070</v>
+        <v>103962</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>138573</v>
+        <v>140438</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.1449612203584534</v>
+        <v>0.1449612203584535</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1251845721008537</v>
+        <v>0.1250546544161482</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1666885110203369</v>
+        <v>0.168931858752606</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>284</v>
@@ -13745,19 +13745,19 @@
         <v>235739</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>212039</v>
+        <v>208473</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>263960</v>
+        <v>264100</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.1446779249471923</v>
+        <v>0.1446779249471924</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1301328320105285</v>
+        <v>0.1279445045743126</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1619979267824945</v>
+        <v>0.1620836655169996</v>
       </c>
     </row>
     <row r="43">
@@ -13849,19 +13849,19 @@
         <v>990062</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>932443</v>
+        <v>932121</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1048808</v>
+        <v>1047454</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2802516191374658</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2639416904640312</v>
+        <v>0.2638504848407472</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2968804092764749</v>
+        <v>0.2964972121118838</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1562</v>
@@ -13870,19 +13870,19 @@
         <v>1119041</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1068596</v>
+        <v>1063759</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1169172</v>
+        <v>1168560</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2994528047822302</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2859537196198741</v>
+        <v>0.2846594238327128</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3128676674252869</v>
+        <v>0.3127039797467526</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2568</v>
@@ -13891,19 +13891,19 @@
         <v>2109104</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2034786</v>
+        <v>2041763</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2180792</v>
+        <v>2188401</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2901218740353183</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2798989535889916</v>
+        <v>0.2808586987812408</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2999830792249204</v>
+        <v>0.3010298065269114</v>
       </c>
     </row>
     <row r="45">
@@ -13920,19 +13920,19 @@
         <v>803073</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>747183</v>
+        <v>743133</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>860251</v>
+        <v>860876</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2273215644049354</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2115011784192415</v>
+        <v>0.2103545503351036</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2435065094267825</v>
+        <v>0.2436836177189632</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1047</v>
@@ -13941,19 +13941,19 @@
         <v>812259</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>766800</v>
+        <v>766964</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>860186</v>
+        <v>859819</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.2173584741881316</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2051938176566677</v>
+        <v>0.2052377034747116</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2301837788418307</v>
+        <v>0.2300856061768652</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1723</v>
@@ -13962,19 +13962,19 @@
         <v>1615332</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1548509</v>
+        <v>1546768</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1700392</v>
+        <v>1689486</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.2222000973336055</v>
+        <v>0.2222000973336054</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2130082198686172</v>
+        <v>0.2127687168297485</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2339007619495917</v>
+        <v>0.2324005446442073</v>
       </c>
     </row>
     <row r="46">
@@ -13991,19 +13991,19 @@
         <v>1048917</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>987394</v>
+        <v>988882</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1114651</v>
+        <v>1108958</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2969113569095618</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.279496239904473</v>
+        <v>0.2799176216526033</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3155182310650549</v>
+        <v>0.3139066812257345</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1517</v>
@@ -14012,19 +14012,19 @@
         <v>1071474</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1024343</v>
+        <v>1020399</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1122690</v>
+        <v>1121163</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2867239579870006</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2741118424728632</v>
+        <v>0.2730563363256146</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3004292388948072</v>
+        <v>0.3000206660203413</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2481</v>
@@ -14033,19 +14033,19 @@
         <v>2120391</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2046230</v>
+        <v>2038235</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2190017</v>
+        <v>2193647</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2916745852865966</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2814732023896371</v>
+        <v>0.2803733398712716</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.301252027217735</v>
+        <v>0.3017513977627936</v>
       </c>
     </row>
     <row r="47">
@@ -14062,19 +14062,19 @@
         <v>690710</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>643715</v>
+        <v>642421</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>743613</v>
+        <v>741896</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.195515459548037</v>
+        <v>0.1955154595480371</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1822129666285048</v>
+        <v>0.1818466795285053</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2104905266280429</v>
+        <v>0.2100045435610209</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1241</v>
@@ -14083,19 +14083,19 @@
         <v>734180</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>696912</v>
+        <v>692505</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>776806</v>
+        <v>774199</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1964647630426377</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1864920672407571</v>
+        <v>0.1853125776971413</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2078713338489603</v>
+        <v>0.2071737731556326</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1971</v>
@@ -14104,19 +14104,19 @@
         <v>1424889</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1358822</v>
+        <v>1356113</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1493141</v>
+        <v>1491388</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1960034433444796</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1869153739531618</v>
+        <v>0.1865427468881932</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2053919566222803</v>
+        <v>0.2051508126271807</v>
       </c>
     </row>
     <row r="48">
